--- a/Rapport/planning_prev.xlsx
+++ b/Rapport/planning_prev.xlsx
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="prevWBS" localSheetId="0">GanttChart!$A1048576</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$33</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">GanttChartPro!$A$1:$C$47</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">GanttChart!$4:$7</definedName>
     <definedName name="valuevx">42.314159</definedName>
@@ -442,7 +442,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="157">
   <si>
     <t>WBS</t>
   </si>
@@ -1535,9 +1535,6 @@
     <t>logique</t>
   </si>
   <si>
-    <t>tirage</t>
-  </si>
-  <si>
     <t>debug</t>
   </si>
   <si>
@@ -1553,7 +1550,7 @@
     <t>schéma</t>
   </si>
   <si>
-    <t>mecanique boitier</t>
+    <t>mecanique fixation</t>
   </si>
 </sst>
 </file>
@@ -2911,6 +2908,45 @@
     </xf>
     <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="10" xfId="37" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="45" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="45" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="45" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="45" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="45" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2918,51 +2954,12 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="45" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="45" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="45" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="45" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="167" fontId="45" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="45" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="10" xfId="37" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -3011,19 +3008,7 @@
     <cellStyle name="Total" xfId="42" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="43" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="161">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="148">
     <dxf>
       <border>
         <left style="thin">
@@ -3127,18 +3112,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF0070C0"/>
@@ -3229,18 +3202,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF0070C0"/>
@@ -3331,18 +3292,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF0070C0"/>
@@ -3433,18 +3382,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF0070C0"/>
@@ -3535,18 +3472,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF0070C0"/>
@@ -3637,18 +3562,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF0070C0"/>
@@ -3739,18 +3652,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF0070C0"/>
@@ -3841,18 +3742,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF0070C0"/>
@@ -3943,18 +3832,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF0070C0"/>
@@ -4045,18 +3922,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF0070C0"/>
@@ -4147,18 +4012,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF0070C0"/>
@@ -4223,18 +4076,6 @@
           <bgColor theme="0" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <border>
@@ -5212,11 +5053,11 @@
   <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:CX42"/>
+  <dimension ref="A1:CX41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A27" sqref="A27:CW27"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AA28" sqref="AA28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5244,27 +5085,27 @@
       <c r="E1" s="47"/>
       <c r="F1" s="47"/>
       <c r="I1" s="130"/>
-      <c r="K1" s="161"/>
-      <c r="L1" s="161"/>
-      <c r="M1" s="161"/>
-      <c r="N1" s="161"/>
-      <c r="O1" s="161"/>
-      <c r="P1" s="161"/>
-      <c r="Q1" s="161"/>
-      <c r="R1" s="161"/>
-      <c r="S1" s="161"/>
-      <c r="T1" s="161"/>
-      <c r="U1" s="161"/>
-      <c r="V1" s="161"/>
-      <c r="W1" s="161"/>
-      <c r="X1" s="161"/>
-      <c r="Y1" s="161"/>
-      <c r="Z1" s="161"/>
-      <c r="AA1" s="161"/>
-      <c r="AB1" s="161"/>
-      <c r="AC1" s="161"/>
-      <c r="AD1" s="161"/>
-      <c r="AE1" s="161"/>
+      <c r="K1" s="174"/>
+      <c r="L1" s="174"/>
+      <c r="M1" s="174"/>
+      <c r="N1" s="174"/>
+      <c r="O1" s="174"/>
+      <c r="P1" s="174"/>
+      <c r="Q1" s="174"/>
+      <c r="R1" s="174"/>
+      <c r="S1" s="174"/>
+      <c r="T1" s="174"/>
+      <c r="U1" s="174"/>
+      <c r="V1" s="174"/>
+      <c r="W1" s="174"/>
+      <c r="X1" s="174"/>
+      <c r="Y1" s="174"/>
+      <c r="Z1" s="174"/>
+      <c r="AA1" s="174"/>
+      <c r="AB1" s="174"/>
+      <c r="AC1" s="174"/>
+      <c r="AD1" s="174"/>
+      <c r="AE1" s="174"/>
     </row>
     <row r="2" spans="1:101" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
@@ -5309,11 +5150,11 @@
       <c r="B4" s="113" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="166">
+      <c r="C4" s="176">
         <v>43598</v>
       </c>
-      <c r="D4" s="166"/>
-      <c r="E4" s="166"/>
+      <c r="D4" s="176"/>
+      <c r="E4" s="176"/>
       <c r="F4" s="110"/>
       <c r="G4" s="113" t="s">
         <v>74</v>
@@ -5323,282 +5164,282 @@
       </c>
       <c r="I4" s="111"/>
       <c r="J4" s="50"/>
-      <c r="K4" s="163" t="str">
+      <c r="K4" s="168" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L4" s="164"/>
-      <c r="M4" s="164"/>
-      <c r="N4" s="164"/>
-      <c r="O4" s="164"/>
-      <c r="P4" s="164"/>
-      <c r="Q4" s="165"/>
-      <c r="R4" s="163" t="str">
+      <c r="L4" s="169"/>
+      <c r="M4" s="169"/>
+      <c r="N4" s="169"/>
+      <c r="O4" s="169"/>
+      <c r="P4" s="169"/>
+      <c r="Q4" s="170"/>
+      <c r="R4" s="168" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S4" s="164"/>
-      <c r="T4" s="164"/>
-      <c r="U4" s="164"/>
-      <c r="V4" s="164"/>
-      <c r="W4" s="164"/>
-      <c r="X4" s="165"/>
-      <c r="Y4" s="163" t="str">
+      <c r="S4" s="169"/>
+      <c r="T4" s="169"/>
+      <c r="U4" s="169"/>
+      <c r="V4" s="169"/>
+      <c r="W4" s="169"/>
+      <c r="X4" s="170"/>
+      <c r="Y4" s="168" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z4" s="164"/>
-      <c r="AA4" s="164"/>
-      <c r="AB4" s="164"/>
-      <c r="AC4" s="164"/>
-      <c r="AD4" s="164"/>
-      <c r="AE4" s="165"/>
-      <c r="AF4" s="163" t="str">
+      <c r="Z4" s="169"/>
+      <c r="AA4" s="169"/>
+      <c r="AB4" s="169"/>
+      <c r="AC4" s="169"/>
+      <c r="AD4" s="169"/>
+      <c r="AE4" s="170"/>
+      <c r="AF4" s="168" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG4" s="164"/>
-      <c r="AH4" s="164"/>
-      <c r="AI4" s="164"/>
-      <c r="AJ4" s="164"/>
-      <c r="AK4" s="164"/>
-      <c r="AL4" s="165"/>
-      <c r="AM4" s="163" t="str">
+      <c r="AG4" s="169"/>
+      <c r="AH4" s="169"/>
+      <c r="AI4" s="169"/>
+      <c r="AJ4" s="169"/>
+      <c r="AK4" s="169"/>
+      <c r="AL4" s="170"/>
+      <c r="AM4" s="168" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN4" s="164"/>
-      <c r="AO4" s="164"/>
-      <c r="AP4" s="164"/>
-      <c r="AQ4" s="164"/>
-      <c r="AR4" s="164"/>
-      <c r="AS4" s="165"/>
-      <c r="AT4" s="163" t="str">
+      <c r="AN4" s="169"/>
+      <c r="AO4" s="169"/>
+      <c r="AP4" s="169"/>
+      <c r="AQ4" s="169"/>
+      <c r="AR4" s="169"/>
+      <c r="AS4" s="170"/>
+      <c r="AT4" s="168" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AU4" s="164"/>
-      <c r="AV4" s="164"/>
-      <c r="AW4" s="164"/>
-      <c r="AX4" s="164"/>
-      <c r="AY4" s="164"/>
-      <c r="AZ4" s="165"/>
-      <c r="BA4" s="163" t="str">
+      <c r="AU4" s="169"/>
+      <c r="AV4" s="169"/>
+      <c r="AW4" s="169"/>
+      <c r="AX4" s="169"/>
+      <c r="AY4" s="169"/>
+      <c r="AZ4" s="170"/>
+      <c r="BA4" s="168" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BB4" s="164"/>
-      <c r="BC4" s="164"/>
-      <c r="BD4" s="164"/>
-      <c r="BE4" s="164"/>
-      <c r="BF4" s="164"/>
-      <c r="BG4" s="165"/>
-      <c r="BH4" s="163" t="str">
+      <c r="BB4" s="169"/>
+      <c r="BC4" s="169"/>
+      <c r="BD4" s="169"/>
+      <c r="BE4" s="169"/>
+      <c r="BF4" s="169"/>
+      <c r="BG4" s="170"/>
+      <c r="BH4" s="168" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BI4" s="164"/>
-      <c r="BJ4" s="164"/>
-      <c r="BK4" s="164"/>
-      <c r="BL4" s="164"/>
-      <c r="BM4" s="164"/>
-      <c r="BN4" s="165"/>
-      <c r="BO4" s="174" t="str">
+      <c r="BI4" s="169"/>
+      <c r="BJ4" s="169"/>
+      <c r="BK4" s="169"/>
+      <c r="BL4" s="169"/>
+      <c r="BM4" s="169"/>
+      <c r="BN4" s="170"/>
+      <c r="BO4" s="162" t="str">
         <f>"Week "&amp;(BO6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 9</v>
       </c>
-      <c r="BP4" s="175"/>
-      <c r="BQ4" s="175"/>
-      <c r="BR4" s="175"/>
-      <c r="BS4" s="175"/>
-      <c r="BT4" s="175"/>
-      <c r="BU4" s="176"/>
-      <c r="BV4" s="174" t="str">
+      <c r="BP4" s="163"/>
+      <c r="BQ4" s="163"/>
+      <c r="BR4" s="163"/>
+      <c r="BS4" s="163"/>
+      <c r="BT4" s="163"/>
+      <c r="BU4" s="164"/>
+      <c r="BV4" s="162" t="str">
         <f>"Week "&amp;(BV6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 10</v>
       </c>
-      <c r="BW4" s="175"/>
-      <c r="BX4" s="175"/>
-      <c r="BY4" s="175"/>
-      <c r="BZ4" s="175"/>
-      <c r="CA4" s="175"/>
-      <c r="CB4" s="176"/>
-      <c r="CC4" s="174" t="str">
+      <c r="BW4" s="163"/>
+      <c r="BX4" s="163"/>
+      <c r="BY4" s="163"/>
+      <c r="BZ4" s="163"/>
+      <c r="CA4" s="163"/>
+      <c r="CB4" s="164"/>
+      <c r="CC4" s="162" t="str">
         <f>"Week "&amp;(CC6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 11</v>
       </c>
-      <c r="CD4" s="175"/>
-      <c r="CE4" s="175"/>
-      <c r="CF4" s="175"/>
-      <c r="CG4" s="175"/>
-      <c r="CH4" s="175"/>
-      <c r="CI4" s="176"/>
-      <c r="CJ4" s="174" t="str">
+      <c r="CD4" s="163"/>
+      <c r="CE4" s="163"/>
+      <c r="CF4" s="163"/>
+      <c r="CG4" s="163"/>
+      <c r="CH4" s="163"/>
+      <c r="CI4" s="164"/>
+      <c r="CJ4" s="162" t="str">
         <f>"Week "&amp;(CJ6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 12</v>
       </c>
-      <c r="CK4" s="175"/>
-      <c r="CL4" s="175"/>
-      <c r="CM4" s="175"/>
-      <c r="CN4" s="175"/>
-      <c r="CO4" s="175"/>
-      <c r="CP4" s="176"/>
-      <c r="CQ4" s="174" t="str">
+      <c r="CK4" s="163"/>
+      <c r="CL4" s="163"/>
+      <c r="CM4" s="163"/>
+      <c r="CN4" s="163"/>
+      <c r="CO4" s="163"/>
+      <c r="CP4" s="164"/>
+      <c r="CQ4" s="162" t="str">
         <f>"Week "&amp;(CQ6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 13</v>
       </c>
-      <c r="CR4" s="175"/>
-      <c r="CS4" s="175"/>
-      <c r="CT4" s="175"/>
-      <c r="CU4" s="175"/>
-      <c r="CV4" s="175"/>
-      <c r="CW4" s="176"/>
+      <c r="CR4" s="163"/>
+      <c r="CS4" s="163"/>
+      <c r="CT4" s="163"/>
+      <c r="CU4" s="163"/>
+      <c r="CV4" s="163"/>
+      <c r="CW4" s="164"/>
     </row>
     <row r="5" spans="1:101" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="109"/>
       <c r="B5" s="113" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="162">
+      <c r="C5" s="175">
         <v>43693</v>
       </c>
-      <c r="D5" s="162"/>
-      <c r="E5" s="162"/>
+      <c r="D5" s="175"/>
+      <c r="E5" s="175"/>
       <c r="F5" s="112"/>
       <c r="G5" s="112"/>
       <c r="H5" s="112"/>
       <c r="I5" s="112"/>
       <c r="J5" s="50"/>
-      <c r="K5" s="167">
+      <c r="K5" s="171">
         <f>K6</f>
         <v>43598</v>
       </c>
-      <c r="L5" s="168"/>
-      <c r="M5" s="168"/>
-      <c r="N5" s="168"/>
-      <c r="O5" s="168"/>
-      <c r="P5" s="168"/>
-      <c r="Q5" s="169"/>
-      <c r="R5" s="167">
+      <c r="L5" s="172"/>
+      <c r="M5" s="172"/>
+      <c r="N5" s="172"/>
+      <c r="O5" s="172"/>
+      <c r="P5" s="172"/>
+      <c r="Q5" s="173"/>
+      <c r="R5" s="171">
         <f>R6</f>
         <v>43605</v>
       </c>
-      <c r="S5" s="168"/>
-      <c r="T5" s="168"/>
-      <c r="U5" s="168"/>
-      <c r="V5" s="168"/>
-      <c r="W5" s="168"/>
-      <c r="X5" s="169"/>
-      <c r="Y5" s="167">
+      <c r="S5" s="172"/>
+      <c r="T5" s="172"/>
+      <c r="U5" s="172"/>
+      <c r="V5" s="172"/>
+      <c r="W5" s="172"/>
+      <c r="X5" s="173"/>
+      <c r="Y5" s="171">
         <f>Y6</f>
         <v>43612</v>
       </c>
-      <c r="Z5" s="168"/>
-      <c r="AA5" s="168"/>
-      <c r="AB5" s="168"/>
-      <c r="AC5" s="168"/>
-      <c r="AD5" s="168"/>
-      <c r="AE5" s="169"/>
-      <c r="AF5" s="167">
+      <c r="Z5" s="172"/>
+      <c r="AA5" s="172"/>
+      <c r="AB5" s="172"/>
+      <c r="AC5" s="172"/>
+      <c r="AD5" s="172"/>
+      <c r="AE5" s="173"/>
+      <c r="AF5" s="171">
         <f>AF6</f>
         <v>43619</v>
       </c>
-      <c r="AG5" s="168"/>
-      <c r="AH5" s="168"/>
-      <c r="AI5" s="168"/>
-      <c r="AJ5" s="168"/>
-      <c r="AK5" s="168"/>
-      <c r="AL5" s="169"/>
-      <c r="AM5" s="167">
+      <c r="AG5" s="172"/>
+      <c r="AH5" s="172"/>
+      <c r="AI5" s="172"/>
+      <c r="AJ5" s="172"/>
+      <c r="AK5" s="172"/>
+      <c r="AL5" s="173"/>
+      <c r="AM5" s="171">
         <f>AM6</f>
         <v>43626</v>
       </c>
-      <c r="AN5" s="168"/>
-      <c r="AO5" s="168"/>
-      <c r="AP5" s="168"/>
-      <c r="AQ5" s="168"/>
-      <c r="AR5" s="168"/>
-      <c r="AS5" s="169"/>
-      <c r="AT5" s="167">
+      <c r="AN5" s="172"/>
+      <c r="AO5" s="172"/>
+      <c r="AP5" s="172"/>
+      <c r="AQ5" s="172"/>
+      <c r="AR5" s="172"/>
+      <c r="AS5" s="173"/>
+      <c r="AT5" s="171">
         <f>AT6</f>
         <v>43633</v>
       </c>
-      <c r="AU5" s="168"/>
-      <c r="AV5" s="168"/>
-      <c r="AW5" s="168"/>
-      <c r="AX5" s="168"/>
-      <c r="AY5" s="168"/>
-      <c r="AZ5" s="169"/>
-      <c r="BA5" s="167">
+      <c r="AU5" s="172"/>
+      <c r="AV5" s="172"/>
+      <c r="AW5" s="172"/>
+      <c r="AX5" s="172"/>
+      <c r="AY5" s="172"/>
+      <c r="AZ5" s="173"/>
+      <c r="BA5" s="171">
         <f>BA6</f>
         <v>43640</v>
       </c>
-      <c r="BB5" s="168"/>
-      <c r="BC5" s="168"/>
-      <c r="BD5" s="168"/>
-      <c r="BE5" s="168"/>
-      <c r="BF5" s="168"/>
-      <c r="BG5" s="169"/>
-      <c r="BH5" s="167">
+      <c r="BB5" s="172"/>
+      <c r="BC5" s="172"/>
+      <c r="BD5" s="172"/>
+      <c r="BE5" s="172"/>
+      <c r="BF5" s="172"/>
+      <c r="BG5" s="173"/>
+      <c r="BH5" s="171">
         <f>BH6</f>
         <v>43647</v>
       </c>
-      <c r="BI5" s="168"/>
-      <c r="BJ5" s="168"/>
-      <c r="BK5" s="168"/>
-      <c r="BL5" s="168"/>
-      <c r="BM5" s="168"/>
-      <c r="BN5" s="169"/>
-      <c r="BO5" s="171">
+      <c r="BI5" s="172"/>
+      <c r="BJ5" s="172"/>
+      <c r="BK5" s="172"/>
+      <c r="BL5" s="172"/>
+      <c r="BM5" s="172"/>
+      <c r="BN5" s="173"/>
+      <c r="BO5" s="165">
         <f>BO6</f>
         <v>43654</v>
       </c>
-      <c r="BP5" s="172"/>
-      <c r="BQ5" s="172"/>
-      <c r="BR5" s="172"/>
-      <c r="BS5" s="172"/>
-      <c r="BT5" s="172"/>
-      <c r="BU5" s="173"/>
-      <c r="BV5" s="171">
+      <c r="BP5" s="166"/>
+      <c r="BQ5" s="166"/>
+      <c r="BR5" s="166"/>
+      <c r="BS5" s="166"/>
+      <c r="BT5" s="166"/>
+      <c r="BU5" s="167"/>
+      <c r="BV5" s="165">
         <f>BV6</f>
         <v>43661</v>
       </c>
-      <c r="BW5" s="172"/>
-      <c r="BX5" s="172"/>
-      <c r="BY5" s="172"/>
-      <c r="BZ5" s="172"/>
-      <c r="CA5" s="172"/>
-      <c r="CB5" s="173"/>
-      <c r="CC5" s="171">
+      <c r="BW5" s="166"/>
+      <c r="BX5" s="166"/>
+      <c r="BY5" s="166"/>
+      <c r="BZ5" s="166"/>
+      <c r="CA5" s="166"/>
+      <c r="CB5" s="167"/>
+      <c r="CC5" s="165">
         <f>CC6</f>
         <v>43668</v>
       </c>
-      <c r="CD5" s="172"/>
-      <c r="CE5" s="172"/>
-      <c r="CF5" s="172"/>
-      <c r="CG5" s="172"/>
-      <c r="CH5" s="172"/>
-      <c r="CI5" s="173"/>
-      <c r="CJ5" s="171">
+      <c r="CD5" s="166"/>
+      <c r="CE5" s="166"/>
+      <c r="CF5" s="166"/>
+      <c r="CG5" s="166"/>
+      <c r="CH5" s="166"/>
+      <c r="CI5" s="167"/>
+      <c r="CJ5" s="165">
         <f>CJ6</f>
         <v>43675</v>
       </c>
-      <c r="CK5" s="172"/>
-      <c r="CL5" s="172"/>
-      <c r="CM5" s="172"/>
-      <c r="CN5" s="172"/>
-      <c r="CO5" s="172"/>
-      <c r="CP5" s="173"/>
-      <c r="CQ5" s="171">
+      <c r="CK5" s="166"/>
+      <c r="CL5" s="166"/>
+      <c r="CM5" s="166"/>
+      <c r="CN5" s="166"/>
+      <c r="CO5" s="166"/>
+      <c r="CP5" s="167"/>
+      <c r="CQ5" s="165">
         <f>CQ6</f>
         <v>43682</v>
       </c>
-      <c r="CR5" s="172"/>
-      <c r="CS5" s="172"/>
-      <c r="CT5" s="172"/>
-      <c r="CU5" s="172"/>
-      <c r="CV5" s="172"/>
-      <c r="CW5" s="173"/>
+      <c r="CR5" s="166"/>
+      <c r="CS5" s="166"/>
+      <c r="CT5" s="166"/>
+      <c r="CU5" s="166"/>
+      <c r="CV5" s="166"/>
+      <c r="CW5" s="167"/>
     </row>
     <row r="6" spans="1:101" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="49"/>
@@ -6388,7 +6229,7 @@
       <c r="G8" s="89"/>
       <c r="H8" s="90"/>
       <c r="I8" s="91" t="str">
-        <f t="shared" ref="I8:I34" si="41">IF(OR(F8=0,E8=0)," - ",NETWORKDAYS(E8,F8))</f>
+        <f t="shared" ref="I8:I33" si="41">IF(OR(F8=0,E8=0)," - ",NETWORKDAYS(E8,F8))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J8" s="94"/>
@@ -6466,7 +6307,7 @@
         <v>1.1</v>
       </c>
       <c r="B9" s="125" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D9" s="126"/>
       <c r="E9" s="100">
@@ -6489,92 +6330,92 @@
       <c r="M9" s="107"/>
       <c r="N9" s="107"/>
       <c r="O9" s="107"/>
-      <c r="P9" s="177"/>
-      <c r="Q9" s="177"/>
+      <c r="P9" s="161"/>
+      <c r="Q9" s="161"/>
       <c r="R9" s="107"/>
       <c r="S9" s="107"/>
       <c r="T9" s="107"/>
       <c r="U9" s="107"/>
       <c r="V9" s="107"/>
-      <c r="W9" s="177"/>
-      <c r="X9" s="177"/>
+      <c r="W9" s="161"/>
+      <c r="X9" s="161"/>
       <c r="Y9" s="107"/>
       <c r="Z9" s="107"/>
       <c r="AA9" s="107"/>
       <c r="AB9" s="107"/>
       <c r="AC9" s="107"/>
-      <c r="AD9" s="177"/>
-      <c r="AE9" s="177"/>
+      <c r="AD9" s="161"/>
+      <c r="AE9" s="161"/>
       <c r="AF9" s="107"/>
       <c r="AG9" s="107"/>
       <c r="AH9" s="107"/>
       <c r="AI9" s="107"/>
       <c r="AJ9" s="107"/>
-      <c r="AK9" s="177"/>
-      <c r="AL9" s="177"/>
+      <c r="AK9" s="161"/>
+      <c r="AL9" s="161"/>
       <c r="AM9" s="107"/>
       <c r="AN9" s="107"/>
       <c r="AO9" s="107"/>
       <c r="AP9" s="107"/>
       <c r="AQ9" s="107"/>
-      <c r="AR9" s="177"/>
-      <c r="AS9" s="177"/>
+      <c r="AR9" s="161"/>
+      <c r="AS9" s="161"/>
       <c r="AT9" s="107"/>
       <c r="AU9" s="107"/>
       <c r="AV9" s="107"/>
       <c r="AW9" s="107"/>
       <c r="AX9" s="107"/>
-      <c r="AY9" s="177"/>
-      <c r="AZ9" s="177"/>
+      <c r="AY9" s="161"/>
+      <c r="AZ9" s="161"/>
       <c r="BA9" s="107"/>
       <c r="BB9" s="107"/>
       <c r="BC9" s="107"/>
       <c r="BD9" s="107"/>
       <c r="BE9" s="107"/>
-      <c r="BF9" s="177"/>
-      <c r="BG9" s="177"/>
+      <c r="BF9" s="161"/>
+      <c r="BG9" s="161"/>
       <c r="BH9" s="107"/>
       <c r="BI9" s="107"/>
       <c r="BJ9" s="107"/>
       <c r="BK9" s="107"/>
       <c r="BL9" s="107"/>
-      <c r="BM9" s="177"/>
-      <c r="BN9" s="177"/>
+      <c r="BM9" s="161"/>
+      <c r="BN9" s="161"/>
       <c r="BO9" s="107"/>
       <c r="BP9" s="107"/>
       <c r="BQ9" s="107"/>
       <c r="BR9" s="107"/>
       <c r="BS9" s="107"/>
-      <c r="BT9" s="177"/>
-      <c r="BU9" s="177"/>
+      <c r="BT9" s="161"/>
+      <c r="BU9" s="161"/>
       <c r="BV9" s="107"/>
       <c r="BW9" s="107"/>
       <c r="BX9" s="107"/>
       <c r="BY9" s="107"/>
       <c r="BZ9" s="107"/>
-      <c r="CA9" s="177"/>
-      <c r="CB9" s="177"/>
+      <c r="CA9" s="161"/>
+      <c r="CB9" s="161"/>
       <c r="CC9" s="107"/>
       <c r="CD9" s="107"/>
       <c r="CE9" s="107"/>
       <c r="CF9" s="107"/>
       <c r="CG9" s="107"/>
-      <c r="CH9" s="177"/>
-      <c r="CI9" s="177"/>
+      <c r="CH9" s="161"/>
+      <c r="CI9" s="161"/>
       <c r="CJ9" s="107"/>
       <c r="CK9" s="107"/>
       <c r="CL9" s="107"/>
       <c r="CM9" s="107"/>
       <c r="CN9" s="107"/>
-      <c r="CO9" s="177"/>
-      <c r="CP9" s="177"/>
+      <c r="CO9" s="161"/>
+      <c r="CP9" s="161"/>
       <c r="CQ9" s="107"/>
       <c r="CR9" s="107"/>
       <c r="CS9" s="107"/>
       <c r="CT9" s="107"/>
       <c r="CU9" s="107"/>
-      <c r="CV9" s="177"/>
-      <c r="CW9" s="177"/>
+      <c r="CV9" s="161"/>
+      <c r="CW9" s="161"/>
     </row>
     <row r="10" spans="1:101" s="61" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="60" t="str">
@@ -6605,92 +6446,92 @@
       <c r="M10" s="107"/>
       <c r="N10" s="107"/>
       <c r="O10" s="107"/>
-      <c r="P10" s="177"/>
-      <c r="Q10" s="177"/>
+      <c r="P10" s="161"/>
+      <c r="Q10" s="161"/>
       <c r="R10" s="107"/>
       <c r="S10" s="107"/>
       <c r="T10" s="107"/>
       <c r="U10" s="107"/>
       <c r="V10" s="107"/>
-      <c r="W10" s="177"/>
-      <c r="X10" s="177"/>
+      <c r="W10" s="161"/>
+      <c r="X10" s="161"/>
       <c r="Y10" s="107"/>
       <c r="Z10" s="107"/>
       <c r="AA10" s="107"/>
       <c r="AB10" s="107"/>
       <c r="AC10" s="107"/>
-      <c r="AD10" s="177"/>
-      <c r="AE10" s="177"/>
+      <c r="AD10" s="161"/>
+      <c r="AE10" s="161"/>
       <c r="AF10" s="107"/>
       <c r="AG10" s="107"/>
       <c r="AH10" s="107"/>
       <c r="AI10" s="107"/>
       <c r="AJ10" s="107"/>
-      <c r="AK10" s="177"/>
-      <c r="AL10" s="177"/>
+      <c r="AK10" s="161"/>
+      <c r="AL10" s="161"/>
       <c r="AM10" s="107"/>
       <c r="AN10" s="107"/>
       <c r="AO10" s="107"/>
       <c r="AP10" s="107"/>
       <c r="AQ10" s="107"/>
-      <c r="AR10" s="177"/>
-      <c r="AS10" s="177"/>
+      <c r="AR10" s="161"/>
+      <c r="AS10" s="161"/>
       <c r="AT10" s="107"/>
       <c r="AU10" s="107"/>
       <c r="AV10" s="107"/>
       <c r="AW10" s="107"/>
       <c r="AX10" s="107"/>
-      <c r="AY10" s="177"/>
-      <c r="AZ10" s="177"/>
+      <c r="AY10" s="161"/>
+      <c r="AZ10" s="161"/>
       <c r="BA10" s="107"/>
       <c r="BB10" s="107"/>
       <c r="BC10" s="107"/>
       <c r="BD10" s="107"/>
       <c r="BE10" s="107"/>
-      <c r="BF10" s="177"/>
-      <c r="BG10" s="177"/>
+      <c r="BF10" s="161"/>
+      <c r="BG10" s="161"/>
       <c r="BH10" s="107"/>
       <c r="BI10" s="107"/>
       <c r="BJ10" s="107"/>
       <c r="BK10" s="107"/>
       <c r="BL10" s="107"/>
-      <c r="BM10" s="177"/>
-      <c r="BN10" s="177"/>
+      <c r="BM10" s="161"/>
+      <c r="BN10" s="161"/>
       <c r="BO10" s="107"/>
       <c r="BP10" s="107"/>
       <c r="BQ10" s="107"/>
       <c r="BR10" s="107"/>
       <c r="BS10" s="107"/>
-      <c r="BT10" s="177"/>
-      <c r="BU10" s="177"/>
+      <c r="BT10" s="161"/>
+      <c r="BU10" s="161"/>
       <c r="BV10" s="107"/>
       <c r="BW10" s="107"/>
       <c r="BX10" s="107"/>
       <c r="BY10" s="107"/>
       <c r="BZ10" s="107"/>
-      <c r="CA10" s="177"/>
-      <c r="CB10" s="177"/>
+      <c r="CA10" s="161"/>
+      <c r="CB10" s="161"/>
       <c r="CC10" s="107"/>
       <c r="CD10" s="107"/>
       <c r="CE10" s="107"/>
       <c r="CF10" s="107"/>
       <c r="CG10" s="107"/>
-      <c r="CH10" s="177"/>
-      <c r="CI10" s="177"/>
+      <c r="CH10" s="161"/>
+      <c r="CI10" s="161"/>
       <c r="CJ10" s="107"/>
       <c r="CK10" s="107"/>
       <c r="CL10" s="107"/>
       <c r="CM10" s="107"/>
       <c r="CN10" s="107"/>
-      <c r="CO10" s="177"/>
-      <c r="CP10" s="177"/>
+      <c r="CO10" s="161"/>
+      <c r="CP10" s="161"/>
       <c r="CQ10" s="107"/>
       <c r="CR10" s="107"/>
       <c r="CS10" s="107"/>
       <c r="CT10" s="107"/>
       <c r="CU10" s="107"/>
-      <c r="CV10" s="177"/>
-      <c r="CW10" s="177"/>
+      <c r="CV10" s="161"/>
+      <c r="CW10" s="161"/>
     </row>
     <row r="11" spans="1:101" s="61" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="60" t="str">
@@ -6722,92 +6563,92 @@
       <c r="M11" s="107"/>
       <c r="N11" s="107"/>
       <c r="O11" s="107"/>
-      <c r="P11" s="177"/>
-      <c r="Q11" s="177"/>
+      <c r="P11" s="161"/>
+      <c r="Q11" s="161"/>
       <c r="R11" s="107"/>
       <c r="S11" s="107"/>
       <c r="T11" s="107"/>
       <c r="U11" s="107"/>
       <c r="V11" s="107"/>
-      <c r="W11" s="177"/>
-      <c r="X11" s="177"/>
+      <c r="W11" s="161"/>
+      <c r="X11" s="161"/>
       <c r="Y11" s="107"/>
       <c r="Z11" s="107"/>
       <c r="AA11" s="107"/>
       <c r="AB11" s="107"/>
       <c r="AC11" s="107"/>
-      <c r="AD11" s="177"/>
-      <c r="AE11" s="177"/>
+      <c r="AD11" s="161"/>
+      <c r="AE11" s="161"/>
       <c r="AF11" s="107"/>
       <c r="AG11" s="107"/>
       <c r="AH11" s="107"/>
       <c r="AI11" s="107"/>
       <c r="AJ11" s="107"/>
-      <c r="AK11" s="177"/>
-      <c r="AL11" s="177"/>
+      <c r="AK11" s="161"/>
+      <c r="AL11" s="161"/>
       <c r="AM11" s="107"/>
       <c r="AN11" s="107"/>
       <c r="AO11" s="107"/>
       <c r="AP11" s="107"/>
       <c r="AQ11" s="107"/>
-      <c r="AR11" s="177"/>
-      <c r="AS11" s="177"/>
+      <c r="AR11" s="161"/>
+      <c r="AS11" s="161"/>
       <c r="AT11" s="107"/>
       <c r="AU11" s="107"/>
       <c r="AV11" s="107"/>
       <c r="AW11" s="107"/>
       <c r="AX11" s="107"/>
-      <c r="AY11" s="177"/>
-      <c r="AZ11" s="177"/>
+      <c r="AY11" s="161"/>
+      <c r="AZ11" s="161"/>
       <c r="BA11" s="107"/>
       <c r="BB11" s="107"/>
       <c r="BC11" s="107"/>
       <c r="BD11" s="107"/>
       <c r="BE11" s="107"/>
-      <c r="BF11" s="177"/>
-      <c r="BG11" s="177"/>
+      <c r="BF11" s="161"/>
+      <c r="BG11" s="161"/>
       <c r="BH11" s="107"/>
       <c r="BI11" s="107"/>
       <c r="BJ11" s="107"/>
       <c r="BK11" s="107"/>
       <c r="BL11" s="107"/>
-      <c r="BM11" s="177"/>
-      <c r="BN11" s="177"/>
+      <c r="BM11" s="161"/>
+      <c r="BN11" s="161"/>
       <c r="BO11" s="107"/>
       <c r="BP11" s="107"/>
       <c r="BQ11" s="107"/>
       <c r="BR11" s="107"/>
       <c r="BS11" s="107"/>
-      <c r="BT11" s="177"/>
-      <c r="BU11" s="177"/>
+      <c r="BT11" s="161"/>
+      <c r="BU11" s="161"/>
       <c r="BV11" s="107"/>
       <c r="BW11" s="107"/>
       <c r="BX11" s="107"/>
       <c r="BY11" s="107"/>
       <c r="BZ11" s="107"/>
-      <c r="CA11" s="177"/>
-      <c r="CB11" s="177"/>
+      <c r="CA11" s="161"/>
+      <c r="CB11" s="161"/>
       <c r="CC11" s="107"/>
       <c r="CD11" s="107"/>
       <c r="CE11" s="107"/>
       <c r="CF11" s="107"/>
       <c r="CG11" s="107"/>
-      <c r="CH11" s="177"/>
-      <c r="CI11" s="177"/>
+      <c r="CH11" s="161"/>
+      <c r="CI11" s="161"/>
       <c r="CJ11" s="107"/>
       <c r="CK11" s="107"/>
       <c r="CL11" s="107"/>
       <c r="CM11" s="107"/>
       <c r="CN11" s="107"/>
-      <c r="CO11" s="177"/>
-      <c r="CP11" s="177"/>
+      <c r="CO11" s="161"/>
+      <c r="CP11" s="161"/>
       <c r="CQ11" s="107"/>
       <c r="CR11" s="107"/>
       <c r="CS11" s="107"/>
       <c r="CT11" s="107"/>
       <c r="CU11" s="107"/>
-      <c r="CV11" s="177"/>
-      <c r="CW11" s="177"/>
+      <c r="CV11" s="161"/>
+      <c r="CW11" s="161"/>
     </row>
     <row r="12" spans="1:101" s="61" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="60" t="str">
@@ -6815,14 +6656,14 @@
         <v>1.4</v>
       </c>
       <c r="B12" s="125" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D12" s="126"/>
       <c r="E12" s="100">
         <v>43139</v>
       </c>
       <c r="F12" s="101">
-        <f t="shared" ref="F12:F32" si="43">IF(ISBLANK(E12)," - ",IF(G12=0,E12,E12+G12-1))</f>
+        <f t="shared" ref="F12:F31" si="43">IF(ISBLANK(E12)," - ",IF(G12=0,E12,E12+G12-1))</f>
         <v>43142</v>
       </c>
       <c r="G12" s="62">
@@ -6838,92 +6679,92 @@
       <c r="M12" s="107"/>
       <c r="N12" s="107"/>
       <c r="O12" s="107"/>
-      <c r="P12" s="177"/>
-      <c r="Q12" s="177"/>
+      <c r="P12" s="161"/>
+      <c r="Q12" s="161"/>
       <c r="R12" s="107"/>
       <c r="S12" s="107"/>
       <c r="T12" s="107"/>
       <c r="U12" s="107"/>
       <c r="V12" s="107"/>
-      <c r="W12" s="177"/>
-      <c r="X12" s="177"/>
+      <c r="W12" s="161"/>
+      <c r="X12" s="161"/>
       <c r="Y12" s="107"/>
       <c r="Z12" s="107"/>
       <c r="AA12" s="107"/>
       <c r="AB12" s="107"/>
       <c r="AC12" s="107"/>
-      <c r="AD12" s="177"/>
-      <c r="AE12" s="177"/>
+      <c r="AD12" s="161"/>
+      <c r="AE12" s="161"/>
       <c r="AF12" s="107"/>
       <c r="AG12" s="107"/>
       <c r="AH12" s="107"/>
       <c r="AI12" s="107"/>
       <c r="AJ12" s="107"/>
-      <c r="AK12" s="177"/>
-      <c r="AL12" s="177"/>
+      <c r="AK12" s="161"/>
+      <c r="AL12" s="161"/>
       <c r="AM12" s="107"/>
       <c r="AN12" s="107"/>
       <c r="AO12" s="107"/>
       <c r="AP12" s="107"/>
       <c r="AQ12" s="107"/>
-      <c r="AR12" s="177"/>
-      <c r="AS12" s="177"/>
+      <c r="AR12" s="161"/>
+      <c r="AS12" s="161"/>
       <c r="AT12" s="107"/>
       <c r="AU12" s="107"/>
       <c r="AV12" s="107"/>
       <c r="AW12" s="107"/>
       <c r="AX12" s="107"/>
-      <c r="AY12" s="177"/>
-      <c r="AZ12" s="177"/>
+      <c r="AY12" s="161"/>
+      <c r="AZ12" s="161"/>
       <c r="BA12" s="107"/>
       <c r="BB12" s="107"/>
       <c r="BC12" s="107"/>
       <c r="BD12" s="107"/>
       <c r="BE12" s="107"/>
-      <c r="BF12" s="177"/>
-      <c r="BG12" s="177"/>
+      <c r="BF12" s="161"/>
+      <c r="BG12" s="161"/>
       <c r="BH12" s="107"/>
       <c r="BI12" s="107"/>
       <c r="BJ12" s="107"/>
       <c r="BK12" s="107"/>
       <c r="BL12" s="107"/>
-      <c r="BM12" s="177"/>
-      <c r="BN12" s="177"/>
+      <c r="BM12" s="161"/>
+      <c r="BN12" s="161"/>
       <c r="BO12" s="107"/>
       <c r="BP12" s="107"/>
       <c r="BQ12" s="107"/>
       <c r="BR12" s="107"/>
       <c r="BS12" s="107"/>
-      <c r="BT12" s="177"/>
-      <c r="BU12" s="177"/>
+      <c r="BT12" s="161"/>
+      <c r="BU12" s="161"/>
       <c r="BV12" s="107"/>
       <c r="BW12" s="107"/>
       <c r="BX12" s="107"/>
       <c r="BY12" s="107"/>
       <c r="BZ12" s="107"/>
-      <c r="CA12" s="177"/>
-      <c r="CB12" s="177"/>
+      <c r="CA12" s="161"/>
+      <c r="CB12" s="161"/>
       <c r="CC12" s="107"/>
       <c r="CD12" s="107"/>
       <c r="CE12" s="107"/>
       <c r="CF12" s="107"/>
       <c r="CG12" s="107"/>
-      <c r="CH12" s="177"/>
-      <c r="CI12" s="177"/>
+      <c r="CH12" s="161"/>
+      <c r="CI12" s="161"/>
       <c r="CJ12" s="107"/>
       <c r="CK12" s="107"/>
       <c r="CL12" s="107"/>
       <c r="CM12" s="107"/>
       <c r="CN12" s="107"/>
-      <c r="CO12" s="177"/>
-      <c r="CP12" s="177"/>
+      <c r="CO12" s="161"/>
+      <c r="CP12" s="161"/>
       <c r="CQ12" s="107"/>
       <c r="CR12" s="107"/>
       <c r="CS12" s="107"/>
       <c r="CT12" s="107"/>
       <c r="CU12" s="107"/>
-      <c r="CV12" s="177"/>
-      <c r="CW12" s="177"/>
+      <c r="CV12" s="161"/>
+      <c r="CW12" s="161"/>
     </row>
     <row r="13" spans="1:101" s="55" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="53" t="str">
@@ -7043,92 +6884,92 @@
       <c r="M14" s="107"/>
       <c r="N14" s="107"/>
       <c r="O14" s="107"/>
-      <c r="P14" s="177"/>
-      <c r="Q14" s="177"/>
+      <c r="P14" s="161"/>
+      <c r="Q14" s="161"/>
       <c r="R14" s="107"/>
       <c r="S14" s="107"/>
       <c r="T14" s="107"/>
       <c r="U14" s="107"/>
       <c r="V14" s="107"/>
-      <c r="W14" s="177"/>
-      <c r="X14" s="177"/>
+      <c r="W14" s="161"/>
+      <c r="X14" s="161"/>
       <c r="Y14" s="107"/>
       <c r="Z14" s="107"/>
       <c r="AA14" s="107"/>
       <c r="AB14" s="107"/>
       <c r="AC14" s="107"/>
-      <c r="AD14" s="177"/>
-      <c r="AE14" s="177"/>
+      <c r="AD14" s="161"/>
+      <c r="AE14" s="161"/>
       <c r="AF14" s="107"/>
       <c r="AG14" s="107"/>
       <c r="AH14" s="107"/>
       <c r="AI14" s="107"/>
       <c r="AJ14" s="107"/>
-      <c r="AK14" s="177"/>
-      <c r="AL14" s="177"/>
+      <c r="AK14" s="161"/>
+      <c r="AL14" s="161"/>
       <c r="AM14" s="107"/>
       <c r="AN14" s="107"/>
       <c r="AO14" s="107"/>
       <c r="AP14" s="107"/>
       <c r="AQ14" s="107"/>
-      <c r="AR14" s="177"/>
-      <c r="AS14" s="177"/>
+      <c r="AR14" s="161"/>
+      <c r="AS14" s="161"/>
       <c r="AT14" s="107"/>
       <c r="AU14" s="107"/>
       <c r="AV14" s="107"/>
       <c r="AW14" s="107"/>
       <c r="AX14" s="107"/>
-      <c r="AY14" s="177"/>
-      <c r="AZ14" s="177"/>
+      <c r="AY14" s="161"/>
+      <c r="AZ14" s="161"/>
       <c r="BA14" s="107"/>
       <c r="BB14" s="107"/>
       <c r="BC14" s="107"/>
       <c r="BD14" s="107"/>
       <c r="BE14" s="107"/>
-      <c r="BF14" s="177"/>
-      <c r="BG14" s="177"/>
+      <c r="BF14" s="161"/>
+      <c r="BG14" s="161"/>
       <c r="BH14" s="107"/>
       <c r="BI14" s="107"/>
       <c r="BJ14" s="107"/>
       <c r="BK14" s="107"/>
       <c r="BL14" s="107"/>
-      <c r="BM14" s="177"/>
-      <c r="BN14" s="177"/>
+      <c r="BM14" s="161"/>
+      <c r="BN14" s="161"/>
       <c r="BO14" s="107"/>
       <c r="BP14" s="107"/>
       <c r="BQ14" s="107"/>
       <c r="BR14" s="107"/>
       <c r="BS14" s="107"/>
-      <c r="BT14" s="177"/>
-      <c r="BU14" s="177"/>
+      <c r="BT14" s="161"/>
+      <c r="BU14" s="161"/>
       <c r="BV14" s="107"/>
       <c r="BW14" s="107"/>
       <c r="BX14" s="107"/>
       <c r="BY14" s="107"/>
       <c r="BZ14" s="107"/>
-      <c r="CA14" s="177"/>
-      <c r="CB14" s="177"/>
+      <c r="CA14" s="161"/>
+      <c r="CB14" s="161"/>
       <c r="CC14" s="107"/>
       <c r="CD14" s="107"/>
       <c r="CE14" s="107"/>
       <c r="CF14" s="107"/>
       <c r="CG14" s="107"/>
-      <c r="CH14" s="177"/>
-      <c r="CI14" s="177"/>
+      <c r="CH14" s="161"/>
+      <c r="CI14" s="161"/>
       <c r="CJ14" s="107"/>
       <c r="CK14" s="107"/>
       <c r="CL14" s="107"/>
       <c r="CM14" s="107"/>
       <c r="CN14" s="107"/>
-      <c r="CO14" s="177"/>
-      <c r="CP14" s="177"/>
+      <c r="CO14" s="161"/>
+      <c r="CP14" s="161"/>
       <c r="CQ14" s="107"/>
       <c r="CR14" s="107"/>
       <c r="CS14" s="107"/>
       <c r="CT14" s="107"/>
       <c r="CU14" s="107"/>
-      <c r="CV14" s="177"/>
-      <c r="CW14" s="177"/>
+      <c r="CV14" s="161"/>
+      <c r="CW14" s="161"/>
     </row>
     <row r="15" spans="1:101" s="61" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="60" t="str">
@@ -7159,92 +7000,92 @@
       <c r="M15" s="107"/>
       <c r="N15" s="107"/>
       <c r="O15" s="107"/>
-      <c r="P15" s="177"/>
-      <c r="Q15" s="177"/>
+      <c r="P15" s="161"/>
+      <c r="Q15" s="161"/>
       <c r="R15" s="107"/>
       <c r="S15" s="107"/>
       <c r="T15" s="107"/>
       <c r="U15" s="107"/>
       <c r="V15" s="107"/>
-      <c r="W15" s="177"/>
-      <c r="X15" s="177"/>
+      <c r="W15" s="161"/>
+      <c r="X15" s="161"/>
       <c r="Y15" s="107"/>
       <c r="Z15" s="107"/>
       <c r="AA15" s="107"/>
       <c r="AB15" s="107"/>
       <c r="AC15" s="107"/>
-      <c r="AD15" s="177"/>
-      <c r="AE15" s="177"/>
+      <c r="AD15" s="161"/>
+      <c r="AE15" s="161"/>
       <c r="AF15" s="107"/>
       <c r="AG15" s="107"/>
       <c r="AH15" s="107"/>
       <c r="AI15" s="107"/>
       <c r="AJ15" s="107"/>
-      <c r="AK15" s="177"/>
-      <c r="AL15" s="177"/>
+      <c r="AK15" s="161"/>
+      <c r="AL15" s="161"/>
       <c r="AM15" s="107"/>
       <c r="AN15" s="107"/>
       <c r="AO15" s="107"/>
       <c r="AP15" s="107"/>
       <c r="AQ15" s="107"/>
-      <c r="AR15" s="177"/>
-      <c r="AS15" s="177"/>
+      <c r="AR15" s="161"/>
+      <c r="AS15" s="161"/>
       <c r="AT15" s="107"/>
       <c r="AU15" s="107"/>
       <c r="AV15" s="107"/>
       <c r="AW15" s="107"/>
       <c r="AX15" s="107"/>
-      <c r="AY15" s="177"/>
-      <c r="AZ15" s="177"/>
+      <c r="AY15" s="161"/>
+      <c r="AZ15" s="161"/>
       <c r="BA15" s="107"/>
       <c r="BB15" s="107"/>
       <c r="BC15" s="107"/>
       <c r="BD15" s="107"/>
       <c r="BE15" s="107"/>
-      <c r="BF15" s="177"/>
-      <c r="BG15" s="177"/>
+      <c r="BF15" s="161"/>
+      <c r="BG15" s="161"/>
       <c r="BH15" s="107"/>
       <c r="BI15" s="107"/>
       <c r="BJ15" s="107"/>
       <c r="BK15" s="107"/>
       <c r="BL15" s="107"/>
-      <c r="BM15" s="177"/>
-      <c r="BN15" s="177"/>
+      <c r="BM15" s="161"/>
+      <c r="BN15" s="161"/>
       <c r="BO15" s="107"/>
       <c r="BP15" s="107"/>
       <c r="BQ15" s="107"/>
       <c r="BR15" s="107"/>
       <c r="BS15" s="107"/>
-      <c r="BT15" s="177"/>
-      <c r="BU15" s="177"/>
+      <c r="BT15" s="161"/>
+      <c r="BU15" s="161"/>
       <c r="BV15" s="107"/>
       <c r="BW15" s="107"/>
       <c r="BX15" s="107"/>
       <c r="BY15" s="107"/>
       <c r="BZ15" s="107"/>
-      <c r="CA15" s="177"/>
-      <c r="CB15" s="177"/>
+      <c r="CA15" s="161"/>
+      <c r="CB15" s="161"/>
       <c r="CC15" s="107"/>
       <c r="CD15" s="107"/>
       <c r="CE15" s="107"/>
       <c r="CF15" s="107"/>
       <c r="CG15" s="107"/>
-      <c r="CH15" s="177"/>
-      <c r="CI15" s="177"/>
+      <c r="CH15" s="161"/>
+      <c r="CI15" s="161"/>
       <c r="CJ15" s="107"/>
       <c r="CK15" s="107"/>
       <c r="CL15" s="107"/>
       <c r="CM15" s="107"/>
       <c r="CN15" s="107"/>
-      <c r="CO15" s="177"/>
-      <c r="CP15" s="177"/>
+      <c r="CO15" s="161"/>
+      <c r="CP15" s="161"/>
       <c r="CQ15" s="107"/>
       <c r="CR15" s="107"/>
       <c r="CS15" s="107"/>
       <c r="CT15" s="107"/>
       <c r="CU15" s="107"/>
-      <c r="CV15" s="177"/>
-      <c r="CW15" s="177"/>
+      <c r="CV15" s="161"/>
+      <c r="CW15" s="161"/>
     </row>
     <row r="16" spans="1:101" s="61" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="60" t="str">
@@ -7269,92 +7110,92 @@
       <c r="M16" s="107"/>
       <c r="N16" s="107"/>
       <c r="O16" s="107"/>
-      <c r="P16" s="177"/>
-      <c r="Q16" s="177"/>
+      <c r="P16" s="161"/>
+      <c r="Q16" s="161"/>
       <c r="R16" s="107"/>
       <c r="S16" s="107"/>
       <c r="T16" s="107"/>
       <c r="U16" s="107"/>
       <c r="V16" s="107"/>
-      <c r="W16" s="177"/>
-      <c r="X16" s="177"/>
+      <c r="W16" s="161"/>
+      <c r="X16" s="161"/>
       <c r="Y16" s="107"/>
       <c r="Z16" s="107"/>
       <c r="AA16" s="107"/>
       <c r="AB16" s="107"/>
       <c r="AC16" s="107"/>
-      <c r="AD16" s="177"/>
-      <c r="AE16" s="177"/>
+      <c r="AD16" s="161"/>
+      <c r="AE16" s="161"/>
       <c r="AF16" s="107"/>
       <c r="AG16" s="107"/>
       <c r="AH16" s="107"/>
       <c r="AI16" s="107"/>
       <c r="AJ16" s="107"/>
-      <c r="AK16" s="177"/>
-      <c r="AL16" s="177"/>
+      <c r="AK16" s="161"/>
+      <c r="AL16" s="161"/>
       <c r="AM16" s="107"/>
       <c r="AN16" s="107"/>
       <c r="AO16" s="107"/>
       <c r="AP16" s="107"/>
       <c r="AQ16" s="107"/>
-      <c r="AR16" s="177"/>
-      <c r="AS16" s="177"/>
+      <c r="AR16" s="161"/>
+      <c r="AS16" s="161"/>
       <c r="AT16" s="107"/>
       <c r="AU16" s="107"/>
       <c r="AV16" s="107"/>
       <c r="AW16" s="107"/>
       <c r="AX16" s="107"/>
-      <c r="AY16" s="177"/>
-      <c r="AZ16" s="177"/>
+      <c r="AY16" s="161"/>
+      <c r="AZ16" s="161"/>
       <c r="BA16" s="107"/>
       <c r="BB16" s="107"/>
       <c r="BC16" s="107"/>
       <c r="BD16" s="107"/>
       <c r="BE16" s="107"/>
-      <c r="BF16" s="177"/>
-      <c r="BG16" s="177"/>
+      <c r="BF16" s="161"/>
+      <c r="BG16" s="161"/>
       <c r="BH16" s="107"/>
       <c r="BI16" s="107"/>
       <c r="BJ16" s="107"/>
       <c r="BK16" s="107"/>
       <c r="BL16" s="107"/>
-      <c r="BM16" s="177"/>
-      <c r="BN16" s="177"/>
+      <c r="BM16" s="161"/>
+      <c r="BN16" s="161"/>
       <c r="BO16" s="107"/>
       <c r="BP16" s="107"/>
       <c r="BQ16" s="107"/>
       <c r="BR16" s="107"/>
       <c r="BS16" s="107"/>
-      <c r="BT16" s="177"/>
-      <c r="BU16" s="177"/>
+      <c r="BT16" s="161"/>
+      <c r="BU16" s="161"/>
       <c r="BV16" s="107"/>
       <c r="BW16" s="107"/>
       <c r="BX16" s="107"/>
       <c r="BY16" s="107"/>
       <c r="BZ16" s="107"/>
-      <c r="CA16" s="177"/>
-      <c r="CB16" s="177"/>
+      <c r="CA16" s="161"/>
+      <c r="CB16" s="161"/>
       <c r="CC16" s="107"/>
       <c r="CD16" s="107"/>
       <c r="CE16" s="107"/>
       <c r="CF16" s="107"/>
       <c r="CG16" s="107"/>
-      <c r="CH16" s="177"/>
-      <c r="CI16" s="177"/>
+      <c r="CH16" s="161"/>
+      <c r="CI16" s="161"/>
       <c r="CJ16" s="107"/>
       <c r="CK16" s="107"/>
       <c r="CL16" s="107"/>
       <c r="CM16" s="107"/>
       <c r="CN16" s="107"/>
-      <c r="CO16" s="177"/>
-      <c r="CP16" s="177"/>
+      <c r="CO16" s="161"/>
+      <c r="CP16" s="161"/>
       <c r="CQ16" s="107"/>
       <c r="CR16" s="107"/>
       <c r="CS16" s="107"/>
       <c r="CT16" s="107"/>
       <c r="CU16" s="107"/>
-      <c r="CV16" s="177"/>
-      <c r="CW16" s="177"/>
+      <c r="CV16" s="161"/>
+      <c r="CW16" s="161"/>
     </row>
     <row r="17" spans="1:102" s="61" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="60" t="str">
@@ -7362,7 +7203,7 @@
         <v>2.3.1</v>
       </c>
       <c r="B17" s="125" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D17" s="126"/>
       <c r="E17" s="100">
@@ -7385,92 +7226,92 @@
       <c r="M17" s="107"/>
       <c r="N17" s="107"/>
       <c r="O17" s="107"/>
-      <c r="P17" s="177"/>
-      <c r="Q17" s="177"/>
+      <c r="P17" s="161"/>
+      <c r="Q17" s="161"/>
       <c r="R17" s="107"/>
       <c r="S17" s="107"/>
       <c r="T17" s="107"/>
       <c r="U17" s="107"/>
       <c r="V17" s="107"/>
-      <c r="W17" s="177"/>
-      <c r="X17" s="177"/>
+      <c r="W17" s="161"/>
+      <c r="X17" s="161"/>
       <c r="Y17" s="107"/>
       <c r="Z17" s="107"/>
       <c r="AA17" s="107"/>
       <c r="AB17" s="107"/>
       <c r="AC17" s="107"/>
-      <c r="AD17" s="177"/>
-      <c r="AE17" s="177"/>
+      <c r="AD17" s="161"/>
+      <c r="AE17" s="161"/>
       <c r="AF17" s="107"/>
       <c r="AG17" s="107"/>
       <c r="AH17" s="107"/>
       <c r="AI17" s="107"/>
       <c r="AJ17" s="107"/>
-      <c r="AK17" s="177"/>
-      <c r="AL17" s="177"/>
+      <c r="AK17" s="161"/>
+      <c r="AL17" s="161"/>
       <c r="AM17" s="107"/>
       <c r="AN17" s="107"/>
       <c r="AO17" s="107"/>
       <c r="AP17" s="107"/>
       <c r="AQ17" s="107"/>
-      <c r="AR17" s="177"/>
-      <c r="AS17" s="177"/>
+      <c r="AR17" s="161"/>
+      <c r="AS17" s="161"/>
       <c r="AT17" s="107"/>
       <c r="AU17" s="107"/>
       <c r="AV17" s="107"/>
       <c r="AW17" s="107"/>
       <c r="AX17" s="107"/>
-      <c r="AY17" s="177"/>
-      <c r="AZ17" s="177"/>
+      <c r="AY17" s="161"/>
+      <c r="AZ17" s="161"/>
       <c r="BA17" s="107"/>
       <c r="BB17" s="107"/>
       <c r="BC17" s="107"/>
       <c r="BD17" s="107"/>
       <c r="BE17" s="107"/>
-      <c r="BF17" s="177"/>
-      <c r="BG17" s="177"/>
+      <c r="BF17" s="161"/>
+      <c r="BG17" s="161"/>
       <c r="BH17" s="107"/>
       <c r="BI17" s="107"/>
       <c r="BJ17" s="107"/>
       <c r="BK17" s="107"/>
       <c r="BL17" s="107"/>
-      <c r="BM17" s="177"/>
-      <c r="BN17" s="177"/>
+      <c r="BM17" s="161"/>
+      <c r="BN17" s="161"/>
       <c r="BO17" s="107"/>
       <c r="BP17" s="107"/>
       <c r="BQ17" s="107"/>
       <c r="BR17" s="107"/>
       <c r="BS17" s="107"/>
-      <c r="BT17" s="177"/>
-      <c r="BU17" s="177"/>
+      <c r="BT17" s="161"/>
+      <c r="BU17" s="161"/>
       <c r="BV17" s="107"/>
       <c r="BW17" s="107"/>
       <c r="BX17" s="107"/>
       <c r="BY17" s="107"/>
       <c r="BZ17" s="107"/>
-      <c r="CA17" s="177"/>
-      <c r="CB17" s="177"/>
+      <c r="CA17" s="161"/>
+      <c r="CB17" s="161"/>
       <c r="CC17" s="107"/>
       <c r="CD17" s="107"/>
       <c r="CE17" s="107"/>
       <c r="CF17" s="107"/>
       <c r="CG17" s="107"/>
-      <c r="CH17" s="177"/>
-      <c r="CI17" s="177"/>
+      <c r="CH17" s="161"/>
+      <c r="CI17" s="161"/>
       <c r="CJ17" s="107"/>
       <c r="CK17" s="107"/>
       <c r="CL17" s="107"/>
       <c r="CM17" s="107"/>
       <c r="CN17" s="107"/>
-      <c r="CO17" s="177"/>
-      <c r="CP17" s="177"/>
+      <c r="CO17" s="161"/>
+      <c r="CP17" s="161"/>
       <c r="CQ17" s="107"/>
       <c r="CR17" s="107"/>
       <c r="CS17" s="107"/>
       <c r="CT17" s="107"/>
       <c r="CU17" s="107"/>
-      <c r="CV17" s="177"/>
-      <c r="CW17" s="177"/>
+      <c r="CV17" s="161"/>
+      <c r="CW17" s="161"/>
     </row>
     <row r="18" spans="1:102" s="61" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="60" t="str">
@@ -7478,7 +7319,7 @@
         <v>2.3.2</v>
       </c>
       <c r="B18" s="125" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D18" s="126"/>
       <c r="E18" s="100">
@@ -7501,92 +7342,92 @@
       <c r="M18" s="107"/>
       <c r="N18" s="107"/>
       <c r="O18" s="107"/>
-      <c r="P18" s="177"/>
-      <c r="Q18" s="177"/>
+      <c r="P18" s="161"/>
+      <c r="Q18" s="161"/>
       <c r="R18" s="107"/>
       <c r="S18" s="107"/>
       <c r="T18" s="107"/>
       <c r="U18" s="107"/>
       <c r="V18" s="107"/>
-      <c r="W18" s="177"/>
-      <c r="X18" s="177"/>
+      <c r="W18" s="161"/>
+      <c r="X18" s="161"/>
       <c r="Y18" s="107"/>
       <c r="Z18" s="107"/>
       <c r="AA18" s="107"/>
       <c r="AB18" s="107"/>
       <c r="AC18" s="107"/>
-      <c r="AD18" s="177"/>
-      <c r="AE18" s="177"/>
+      <c r="AD18" s="161"/>
+      <c r="AE18" s="161"/>
       <c r="AF18" s="107"/>
       <c r="AG18" s="107"/>
       <c r="AH18" s="107"/>
       <c r="AI18" s="107"/>
       <c r="AJ18" s="107"/>
-      <c r="AK18" s="177"/>
-      <c r="AL18" s="177"/>
+      <c r="AK18" s="161"/>
+      <c r="AL18" s="161"/>
       <c r="AM18" s="107"/>
       <c r="AN18" s="107"/>
       <c r="AO18" s="107"/>
       <c r="AP18" s="107"/>
       <c r="AQ18" s="107"/>
-      <c r="AR18" s="177"/>
-      <c r="AS18" s="177"/>
+      <c r="AR18" s="161"/>
+      <c r="AS18" s="161"/>
       <c r="AT18" s="107"/>
       <c r="AU18" s="107"/>
       <c r="AV18" s="107"/>
       <c r="AW18" s="107"/>
       <c r="AX18" s="107"/>
-      <c r="AY18" s="177"/>
-      <c r="AZ18" s="177"/>
+      <c r="AY18" s="161"/>
+      <c r="AZ18" s="161"/>
       <c r="BA18" s="107"/>
       <c r="BB18" s="107"/>
       <c r="BC18" s="107"/>
       <c r="BD18" s="107"/>
       <c r="BE18" s="107"/>
-      <c r="BF18" s="177"/>
-      <c r="BG18" s="177"/>
+      <c r="BF18" s="161"/>
+      <c r="BG18" s="161"/>
       <c r="BH18" s="107"/>
       <c r="BI18" s="107"/>
       <c r="BJ18" s="107"/>
       <c r="BK18" s="107"/>
       <c r="BL18" s="107"/>
-      <c r="BM18" s="177"/>
-      <c r="BN18" s="177"/>
+      <c r="BM18" s="161"/>
+      <c r="BN18" s="161"/>
       <c r="BO18" s="107"/>
       <c r="BP18" s="107"/>
       <c r="BQ18" s="107"/>
       <c r="BR18" s="107"/>
       <c r="BS18" s="107"/>
-      <c r="BT18" s="177"/>
-      <c r="BU18" s="177"/>
+      <c r="BT18" s="161"/>
+      <c r="BU18" s="161"/>
       <c r="BV18" s="107"/>
       <c r="BW18" s="107"/>
       <c r="BX18" s="107"/>
       <c r="BY18" s="107"/>
       <c r="BZ18" s="107"/>
-      <c r="CA18" s="177"/>
-      <c r="CB18" s="177"/>
+      <c r="CA18" s="161"/>
+      <c r="CB18" s="161"/>
       <c r="CC18" s="107"/>
       <c r="CD18" s="107"/>
       <c r="CE18" s="107"/>
       <c r="CF18" s="107"/>
       <c r="CG18" s="107"/>
-      <c r="CH18" s="177"/>
-      <c r="CI18" s="177"/>
+      <c r="CH18" s="161"/>
+      <c r="CI18" s="161"/>
       <c r="CJ18" s="107"/>
       <c r="CK18" s="107"/>
       <c r="CL18" s="107"/>
       <c r="CM18" s="107"/>
       <c r="CN18" s="107"/>
-      <c r="CO18" s="177"/>
-      <c r="CP18" s="177"/>
+      <c r="CO18" s="161"/>
+      <c r="CP18" s="161"/>
       <c r="CQ18" s="107"/>
       <c r="CR18" s="107"/>
       <c r="CS18" s="107"/>
       <c r="CT18" s="107"/>
       <c r="CU18" s="107"/>
-      <c r="CV18" s="177"/>
-      <c r="CW18" s="177"/>
+      <c r="CV18" s="161"/>
+      <c r="CW18" s="161"/>
     </row>
     <row r="19" spans="1:102" s="61" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="60" t="str">
@@ -7617,92 +7458,92 @@
       <c r="M19" s="107"/>
       <c r="N19" s="107"/>
       <c r="O19" s="107"/>
-      <c r="P19" s="177"/>
-      <c r="Q19" s="177"/>
+      <c r="P19" s="161"/>
+      <c r="Q19" s="161"/>
       <c r="R19" s="107"/>
       <c r="S19" s="107"/>
       <c r="T19" s="107"/>
       <c r="U19" s="107"/>
       <c r="V19" s="107"/>
-      <c r="W19" s="177"/>
-      <c r="X19" s="177"/>
+      <c r="W19" s="161"/>
+      <c r="X19" s="161"/>
       <c r="Y19" s="107"/>
       <c r="Z19" s="107"/>
       <c r="AA19" s="107"/>
       <c r="AB19" s="107"/>
       <c r="AC19" s="107"/>
-      <c r="AD19" s="177"/>
-      <c r="AE19" s="177"/>
+      <c r="AD19" s="161"/>
+      <c r="AE19" s="161"/>
       <c r="AF19" s="107"/>
       <c r="AG19" s="107"/>
       <c r="AH19" s="107"/>
       <c r="AI19" s="107"/>
       <c r="AJ19" s="107"/>
-      <c r="AK19" s="177"/>
-      <c r="AL19" s="177"/>
+      <c r="AK19" s="161"/>
+      <c r="AL19" s="161"/>
       <c r="AM19" s="107"/>
       <c r="AN19" s="107"/>
       <c r="AO19" s="107"/>
       <c r="AP19" s="107"/>
       <c r="AQ19" s="107"/>
-      <c r="AR19" s="177"/>
-      <c r="AS19" s="177"/>
+      <c r="AR19" s="161"/>
+      <c r="AS19" s="161"/>
       <c r="AT19" s="107"/>
       <c r="AU19" s="107"/>
       <c r="AV19" s="107"/>
       <c r="AW19" s="107"/>
       <c r="AX19" s="107"/>
-      <c r="AY19" s="177"/>
-      <c r="AZ19" s="177"/>
+      <c r="AY19" s="161"/>
+      <c r="AZ19" s="161"/>
       <c r="BA19" s="107"/>
       <c r="BB19" s="107"/>
       <c r="BC19" s="107"/>
       <c r="BD19" s="107"/>
       <c r="BE19" s="107"/>
-      <c r="BF19" s="177"/>
-      <c r="BG19" s="177"/>
+      <c r="BF19" s="161"/>
+      <c r="BG19" s="161"/>
       <c r="BH19" s="107"/>
       <c r="BI19" s="107"/>
       <c r="BJ19" s="107"/>
       <c r="BK19" s="107"/>
       <c r="BL19" s="107"/>
-      <c r="BM19" s="177"/>
-      <c r="BN19" s="177"/>
+      <c r="BM19" s="161"/>
+      <c r="BN19" s="161"/>
       <c r="BO19" s="107"/>
       <c r="BP19" s="107"/>
       <c r="BQ19" s="107"/>
       <c r="BR19" s="107"/>
       <c r="BS19" s="107"/>
-      <c r="BT19" s="177"/>
-      <c r="BU19" s="177"/>
+      <c r="BT19" s="161"/>
+      <c r="BU19" s="161"/>
       <c r="BV19" s="107"/>
       <c r="BW19" s="107"/>
       <c r="BX19" s="107"/>
       <c r="BY19" s="107"/>
       <c r="BZ19" s="107"/>
-      <c r="CA19" s="177"/>
-      <c r="CB19" s="177"/>
+      <c r="CA19" s="161"/>
+      <c r="CB19" s="161"/>
       <c r="CC19" s="107"/>
       <c r="CD19" s="107"/>
       <c r="CE19" s="107"/>
       <c r="CF19" s="107"/>
       <c r="CG19" s="107"/>
-      <c r="CH19" s="177"/>
-      <c r="CI19" s="177"/>
+      <c r="CH19" s="161"/>
+      <c r="CI19" s="161"/>
       <c r="CJ19" s="107"/>
       <c r="CK19" s="107"/>
       <c r="CL19" s="107"/>
       <c r="CM19" s="107"/>
       <c r="CN19" s="107"/>
-      <c r="CO19" s="177"/>
-      <c r="CP19" s="177"/>
+      <c r="CO19" s="161"/>
+      <c r="CP19" s="161"/>
       <c r="CQ19" s="107"/>
       <c r="CR19" s="107"/>
       <c r="CS19" s="107"/>
       <c r="CT19" s="107"/>
       <c r="CU19" s="107"/>
-      <c r="CV19" s="177"/>
-      <c r="CW19" s="177"/>
+      <c r="CV19" s="161"/>
+      <c r="CW19" s="161"/>
     </row>
     <row r="20" spans="1:102" s="61" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="60" t="str">
@@ -7710,7 +7551,7 @@
         <v>2.5</v>
       </c>
       <c r="B20" s="125" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D20" s="126"/>
       <c r="E20" s="100">
@@ -7733,92 +7574,92 @@
       <c r="M20" s="107"/>
       <c r="N20" s="107"/>
       <c r="O20" s="107"/>
-      <c r="P20" s="177"/>
-      <c r="Q20" s="177"/>
+      <c r="P20" s="161"/>
+      <c r="Q20" s="161"/>
       <c r="R20" s="107"/>
       <c r="S20" s="107"/>
       <c r="T20" s="107"/>
       <c r="U20" s="107"/>
       <c r="V20" s="107"/>
-      <c r="W20" s="177"/>
-      <c r="X20" s="177"/>
+      <c r="W20" s="161"/>
+      <c r="X20" s="161"/>
       <c r="Y20" s="107"/>
       <c r="Z20" s="107"/>
       <c r="AA20" s="107"/>
       <c r="AB20" s="107"/>
       <c r="AC20" s="107"/>
-      <c r="AD20" s="177"/>
-      <c r="AE20" s="177"/>
+      <c r="AD20" s="161"/>
+      <c r="AE20" s="161"/>
       <c r="AF20" s="107"/>
       <c r="AG20" s="107"/>
       <c r="AH20" s="107"/>
       <c r="AI20" s="107"/>
       <c r="AJ20" s="107"/>
-      <c r="AK20" s="177"/>
-      <c r="AL20" s="177"/>
+      <c r="AK20" s="161"/>
+      <c r="AL20" s="161"/>
       <c r="AM20" s="107"/>
       <c r="AN20" s="107"/>
       <c r="AO20" s="107"/>
       <c r="AP20" s="107"/>
       <c r="AQ20" s="107"/>
-      <c r="AR20" s="177"/>
-      <c r="AS20" s="177"/>
+      <c r="AR20" s="161"/>
+      <c r="AS20" s="161"/>
       <c r="AT20" s="107"/>
       <c r="AU20" s="107"/>
       <c r="AV20" s="107"/>
       <c r="AW20" s="107"/>
       <c r="AX20" s="107"/>
-      <c r="AY20" s="177"/>
-      <c r="AZ20" s="177"/>
+      <c r="AY20" s="161"/>
+      <c r="AZ20" s="161"/>
       <c r="BA20" s="107"/>
       <c r="BB20" s="107"/>
       <c r="BC20" s="107"/>
       <c r="BD20" s="107"/>
       <c r="BE20" s="107"/>
-      <c r="BF20" s="177"/>
-      <c r="BG20" s="177"/>
+      <c r="BF20" s="161"/>
+      <c r="BG20" s="161"/>
       <c r="BH20" s="107"/>
       <c r="BI20" s="107"/>
       <c r="BJ20" s="107"/>
       <c r="BK20" s="107"/>
       <c r="BL20" s="107"/>
-      <c r="BM20" s="177"/>
-      <c r="BN20" s="177"/>
+      <c r="BM20" s="161"/>
+      <c r="BN20" s="161"/>
       <c r="BO20" s="107"/>
       <c r="BP20" s="107"/>
       <c r="BQ20" s="107"/>
       <c r="BR20" s="107"/>
       <c r="BS20" s="107"/>
-      <c r="BT20" s="177"/>
-      <c r="BU20" s="177"/>
+      <c r="BT20" s="161"/>
+      <c r="BU20" s="161"/>
       <c r="BV20" s="107"/>
       <c r="BW20" s="107"/>
       <c r="BX20" s="107"/>
       <c r="BY20" s="107"/>
       <c r="BZ20" s="107"/>
-      <c r="CA20" s="177"/>
-      <c r="CB20" s="177"/>
+      <c r="CA20" s="161"/>
+      <c r="CB20" s="161"/>
       <c r="CC20" s="107"/>
       <c r="CD20" s="107"/>
       <c r="CE20" s="107"/>
       <c r="CF20" s="107"/>
       <c r="CG20" s="107"/>
-      <c r="CH20" s="177"/>
-      <c r="CI20" s="177"/>
+      <c r="CH20" s="161"/>
+      <c r="CI20" s="161"/>
       <c r="CJ20" s="107"/>
       <c r="CK20" s="107"/>
       <c r="CL20" s="107"/>
       <c r="CM20" s="107"/>
       <c r="CN20" s="107"/>
-      <c r="CO20" s="177"/>
-      <c r="CP20" s="177"/>
+      <c r="CO20" s="161"/>
+      <c r="CP20" s="161"/>
       <c r="CQ20" s="107"/>
       <c r="CR20" s="107"/>
       <c r="CS20" s="107"/>
       <c r="CT20" s="107"/>
       <c r="CU20" s="107"/>
-      <c r="CV20" s="177"/>
-      <c r="CW20" s="177"/>
+      <c r="CV20" s="161"/>
+      <c r="CW20" s="161"/>
     </row>
     <row r="21" spans="1:102" s="55" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="53" t="str">
@@ -7915,7 +7756,7 @@
         <v>3.1</v>
       </c>
       <c r="B22" s="125" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D22" s="126"/>
       <c r="E22" s="100">
@@ -7923,10 +7764,10 @@
       </c>
       <c r="F22" s="101">
         <f t="shared" ref="F22" si="45">IF(ISBLANK(E22)," - ",IF(G22=0,E22,E22+G22-1))</f>
-        <v>43646</v>
+        <v>43644</v>
       </c>
       <c r="G22" s="62">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H22" s="63">
         <v>0</v>
@@ -7938,92 +7779,92 @@
       <c r="M22" s="107"/>
       <c r="N22" s="107"/>
       <c r="O22" s="107"/>
-      <c r="P22" s="177"/>
-      <c r="Q22" s="177"/>
+      <c r="P22" s="161"/>
+      <c r="Q22" s="161"/>
       <c r="R22" s="107"/>
       <c r="S22" s="107"/>
       <c r="T22" s="107"/>
       <c r="U22" s="107"/>
       <c r="V22" s="107"/>
-      <c r="W22" s="177"/>
-      <c r="X22" s="177"/>
+      <c r="W22" s="161"/>
+      <c r="X22" s="161"/>
       <c r="Y22" s="107"/>
       <c r="Z22" s="107"/>
       <c r="AA22" s="107"/>
       <c r="AB22" s="107"/>
       <c r="AC22" s="107"/>
-      <c r="AD22" s="177"/>
-      <c r="AE22" s="177"/>
+      <c r="AD22" s="161"/>
+      <c r="AE22" s="161"/>
       <c r="AF22" s="107"/>
       <c r="AG22" s="107"/>
       <c r="AH22" s="107"/>
       <c r="AI22" s="107"/>
       <c r="AJ22" s="107"/>
-      <c r="AK22" s="177"/>
-      <c r="AL22" s="177"/>
+      <c r="AK22" s="161"/>
+      <c r="AL22" s="161"/>
       <c r="AM22" s="107"/>
       <c r="AN22" s="107"/>
       <c r="AO22" s="107"/>
       <c r="AP22" s="107"/>
       <c r="AQ22" s="107"/>
-      <c r="AR22" s="177"/>
-      <c r="AS22" s="177"/>
+      <c r="AR22" s="161"/>
+      <c r="AS22" s="161"/>
       <c r="AT22" s="107"/>
       <c r="AU22" s="107"/>
       <c r="AV22" s="107"/>
       <c r="AW22" s="107"/>
       <c r="AX22" s="107"/>
-      <c r="AY22" s="177"/>
-      <c r="AZ22" s="177"/>
+      <c r="AY22" s="161"/>
+      <c r="AZ22" s="161"/>
       <c r="BA22" s="107"/>
       <c r="BB22" s="107"/>
       <c r="BC22" s="107"/>
       <c r="BD22" s="107"/>
       <c r="BE22" s="107"/>
-      <c r="BF22" s="177"/>
-      <c r="BG22" s="177"/>
+      <c r="BF22" s="161"/>
+      <c r="BG22" s="161"/>
       <c r="BH22" s="107"/>
       <c r="BI22" s="107"/>
       <c r="BJ22" s="107"/>
       <c r="BK22" s="107"/>
       <c r="BL22" s="107"/>
-      <c r="BM22" s="177"/>
-      <c r="BN22" s="177"/>
+      <c r="BM22" s="161"/>
+      <c r="BN22" s="161"/>
       <c r="BO22" s="107"/>
       <c r="BP22" s="107"/>
       <c r="BQ22" s="107"/>
       <c r="BR22" s="107"/>
       <c r="BS22" s="107"/>
-      <c r="BT22" s="177"/>
-      <c r="BU22" s="177"/>
+      <c r="BT22" s="161"/>
+      <c r="BU22" s="161"/>
       <c r="BV22" s="107"/>
       <c r="BW22" s="107"/>
       <c r="BX22" s="107"/>
       <c r="BY22" s="107"/>
       <c r="BZ22" s="107"/>
-      <c r="CA22" s="177"/>
-      <c r="CB22" s="177"/>
+      <c r="CA22" s="161"/>
+      <c r="CB22" s="161"/>
       <c r="CC22" s="107"/>
       <c r="CD22" s="107"/>
       <c r="CE22" s="107"/>
       <c r="CF22" s="107"/>
       <c r="CG22" s="107"/>
-      <c r="CH22" s="177"/>
-      <c r="CI22" s="177"/>
+      <c r="CH22" s="161"/>
+      <c r="CI22" s="161"/>
       <c r="CJ22" s="107"/>
       <c r="CK22" s="107"/>
       <c r="CL22" s="107"/>
       <c r="CM22" s="107"/>
       <c r="CN22" s="107"/>
-      <c r="CO22" s="177"/>
-      <c r="CP22" s="177"/>
+      <c r="CO22" s="161"/>
+      <c r="CP22" s="161"/>
       <c r="CQ22" s="107"/>
       <c r="CR22" s="107"/>
       <c r="CS22" s="107"/>
       <c r="CT22" s="107"/>
       <c r="CU22" s="107"/>
-      <c r="CV22" s="177"/>
-      <c r="CW22" s="177"/>
+      <c r="CV22" s="161"/>
+      <c r="CW22" s="161"/>
       <c r="CX22" s="107"/>
     </row>
     <row r="23" spans="1:102" s="61" customFormat="1" ht="18" x14ac:dyDescent="0.2">
@@ -8036,14 +7877,14 @@
       </c>
       <c r="D23" s="126"/>
       <c r="E23" s="100">
-        <v>43647</v>
+        <v>43641</v>
       </c>
       <c r="F23" s="101">
         <f t="shared" si="43"/>
-        <v>43647</v>
+        <v>43648</v>
       </c>
       <c r="G23" s="62">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H23" s="63">
         <v>0</v>
@@ -8055,92 +7896,92 @@
       <c r="M23" s="107"/>
       <c r="N23" s="107"/>
       <c r="O23" s="107"/>
-      <c r="P23" s="177"/>
-      <c r="Q23" s="177"/>
+      <c r="P23" s="161"/>
+      <c r="Q23" s="161"/>
       <c r="R23" s="107"/>
       <c r="S23" s="107"/>
       <c r="T23" s="107"/>
       <c r="U23" s="107"/>
       <c r="V23" s="107"/>
-      <c r="W23" s="177"/>
-      <c r="X23" s="177"/>
+      <c r="W23" s="161"/>
+      <c r="X23" s="161"/>
       <c r="Y23" s="107"/>
       <c r="Z23" s="107"/>
       <c r="AA23" s="107"/>
       <c r="AB23" s="107"/>
       <c r="AC23" s="107"/>
-      <c r="AD23" s="177"/>
-      <c r="AE23" s="177"/>
+      <c r="AD23" s="161"/>
+      <c r="AE23" s="161"/>
       <c r="AF23" s="107"/>
       <c r="AG23" s="107"/>
       <c r="AH23" s="107"/>
       <c r="AI23" s="107"/>
       <c r="AJ23" s="107"/>
-      <c r="AK23" s="177"/>
-      <c r="AL23" s="177"/>
+      <c r="AK23" s="161"/>
+      <c r="AL23" s="161"/>
       <c r="AM23" s="107"/>
       <c r="AN23" s="107"/>
       <c r="AO23" s="107"/>
       <c r="AP23" s="107"/>
       <c r="AQ23" s="107"/>
-      <c r="AR23" s="177"/>
-      <c r="AS23" s="177"/>
+      <c r="AR23" s="161"/>
+      <c r="AS23" s="161"/>
       <c r="AT23" s="107"/>
       <c r="AU23" s="107"/>
       <c r="AV23" s="107"/>
       <c r="AW23" s="107"/>
       <c r="AX23" s="107"/>
-      <c r="AY23" s="177"/>
-      <c r="AZ23" s="177"/>
+      <c r="AY23" s="161"/>
+      <c r="AZ23" s="161"/>
       <c r="BA23" s="107"/>
       <c r="BB23" s="107"/>
       <c r="BC23" s="107"/>
       <c r="BD23" s="107"/>
       <c r="BE23" s="107"/>
-      <c r="BF23" s="177"/>
-      <c r="BG23" s="177"/>
+      <c r="BF23" s="161"/>
+      <c r="BG23" s="161"/>
       <c r="BH23" s="107"/>
       <c r="BI23" s="107"/>
       <c r="BJ23" s="107"/>
       <c r="BK23" s="107"/>
       <c r="BL23" s="107"/>
-      <c r="BM23" s="177"/>
-      <c r="BN23" s="177"/>
+      <c r="BM23" s="161"/>
+      <c r="BN23" s="161"/>
       <c r="BO23" s="107"/>
       <c r="BP23" s="107"/>
       <c r="BQ23" s="107"/>
       <c r="BR23" s="107"/>
       <c r="BS23" s="107"/>
-      <c r="BT23" s="177"/>
-      <c r="BU23" s="177"/>
+      <c r="BT23" s="161"/>
+      <c r="BU23" s="161"/>
       <c r="BV23" s="107"/>
       <c r="BW23" s="107"/>
       <c r="BX23" s="107"/>
       <c r="BY23" s="107"/>
       <c r="BZ23" s="107"/>
-      <c r="CA23" s="177"/>
-      <c r="CB23" s="177"/>
+      <c r="CA23" s="161"/>
+      <c r="CB23" s="161"/>
       <c r="CC23" s="107"/>
       <c r="CD23" s="107"/>
       <c r="CE23" s="107"/>
       <c r="CF23" s="107"/>
       <c r="CG23" s="107"/>
-      <c r="CH23" s="177"/>
-      <c r="CI23" s="177"/>
+      <c r="CH23" s="161"/>
+      <c r="CI23" s="161"/>
       <c r="CJ23" s="107"/>
       <c r="CK23" s="107"/>
       <c r="CL23" s="107"/>
       <c r="CM23" s="107"/>
       <c r="CN23" s="107"/>
-      <c r="CO23" s="177"/>
-      <c r="CP23" s="177"/>
+      <c r="CO23" s="161"/>
+      <c r="CP23" s="161"/>
       <c r="CQ23" s="107"/>
       <c r="CR23" s="107"/>
       <c r="CS23" s="107"/>
       <c r="CT23" s="107"/>
       <c r="CU23" s="107"/>
-      <c r="CV23" s="177"/>
-      <c r="CW23" s="177"/>
+      <c r="CV23" s="161"/>
+      <c r="CW23" s="161"/>
       <c r="CX23" s="107"/>
     </row>
     <row r="24" spans="1:102" s="61" customFormat="1" ht="18" x14ac:dyDescent="0.2">
@@ -8149,15 +7990,15 @@
         <v>3.3</v>
       </c>
       <c r="B24" s="125" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D24" s="126"/>
       <c r="E24" s="100">
-        <v>43648</v>
+        <v>43649</v>
       </c>
       <c r="F24" s="101">
         <f t="shared" si="43"/>
-        <v>43648</v>
+        <v>43649</v>
       </c>
       <c r="G24" s="62">
         <v>1</v>
@@ -8172,92 +8013,92 @@
       <c r="M24" s="107"/>
       <c r="N24" s="107"/>
       <c r="O24" s="107"/>
-      <c r="P24" s="177"/>
-      <c r="Q24" s="177"/>
+      <c r="P24" s="161"/>
+      <c r="Q24" s="161"/>
       <c r="R24" s="107"/>
       <c r="S24" s="107"/>
       <c r="T24" s="107"/>
       <c r="U24" s="107"/>
       <c r="V24" s="107"/>
-      <c r="W24" s="177"/>
-      <c r="X24" s="177"/>
+      <c r="W24" s="161"/>
+      <c r="X24" s="161"/>
       <c r="Y24" s="107"/>
       <c r="Z24" s="107"/>
       <c r="AA24" s="107"/>
       <c r="AB24" s="107"/>
       <c r="AC24" s="107"/>
-      <c r="AD24" s="177"/>
-      <c r="AE24" s="177"/>
+      <c r="AD24" s="161"/>
+      <c r="AE24" s="161"/>
       <c r="AF24" s="107"/>
       <c r="AG24" s="107"/>
       <c r="AH24" s="107"/>
       <c r="AI24" s="107"/>
       <c r="AJ24" s="107"/>
-      <c r="AK24" s="177"/>
-      <c r="AL24" s="177"/>
+      <c r="AK24" s="161"/>
+      <c r="AL24" s="161"/>
       <c r="AM24" s="107"/>
       <c r="AN24" s="107"/>
       <c r="AO24" s="107"/>
       <c r="AP24" s="107"/>
       <c r="AQ24" s="107"/>
-      <c r="AR24" s="177"/>
-      <c r="AS24" s="177"/>
+      <c r="AR24" s="161"/>
+      <c r="AS24" s="161"/>
       <c r="AT24" s="107"/>
       <c r="AU24" s="107"/>
       <c r="AV24" s="107"/>
       <c r="AW24" s="107"/>
       <c r="AX24" s="107"/>
-      <c r="AY24" s="177"/>
-      <c r="AZ24" s="177"/>
+      <c r="AY24" s="161"/>
+      <c r="AZ24" s="161"/>
       <c r="BA24" s="107"/>
       <c r="BB24" s="107"/>
       <c r="BC24" s="107"/>
       <c r="BD24" s="107"/>
       <c r="BE24" s="107"/>
-      <c r="BF24" s="177"/>
-      <c r="BG24" s="177"/>
+      <c r="BF24" s="161"/>
+      <c r="BG24" s="161"/>
       <c r="BH24" s="107"/>
       <c r="BI24" s="107"/>
       <c r="BJ24" s="107"/>
       <c r="BK24" s="107"/>
       <c r="BL24" s="107"/>
-      <c r="BM24" s="177"/>
-      <c r="BN24" s="177"/>
+      <c r="BM24" s="161"/>
+      <c r="BN24" s="161"/>
       <c r="BO24" s="107"/>
       <c r="BP24" s="107"/>
       <c r="BQ24" s="107"/>
       <c r="BR24" s="107"/>
       <c r="BS24" s="107"/>
-      <c r="BT24" s="177"/>
-      <c r="BU24" s="177"/>
+      <c r="BT24" s="161"/>
+      <c r="BU24" s="161"/>
       <c r="BV24" s="107"/>
       <c r="BW24" s="107"/>
       <c r="BX24" s="107"/>
       <c r="BY24" s="107"/>
       <c r="BZ24" s="107"/>
-      <c r="CA24" s="177"/>
-      <c r="CB24" s="177"/>
+      <c r="CA24" s="161"/>
+      <c r="CB24" s="161"/>
       <c r="CC24" s="107"/>
       <c r="CD24" s="107"/>
       <c r="CE24" s="107"/>
       <c r="CF24" s="107"/>
       <c r="CG24" s="107"/>
-      <c r="CH24" s="177"/>
-      <c r="CI24" s="177"/>
+      <c r="CH24" s="161"/>
+      <c r="CI24" s="161"/>
       <c r="CJ24" s="107"/>
       <c r="CK24" s="107"/>
       <c r="CL24" s="107"/>
       <c r="CM24" s="107"/>
       <c r="CN24" s="107"/>
-      <c r="CO24" s="177"/>
-      <c r="CP24" s="177"/>
+      <c r="CO24" s="161"/>
+      <c r="CP24" s="161"/>
       <c r="CQ24" s="107"/>
       <c r="CR24" s="107"/>
       <c r="CS24" s="107"/>
       <c r="CT24" s="107"/>
       <c r="CU24" s="107"/>
-      <c r="CV24" s="177"/>
-      <c r="CW24" s="177"/>
+      <c r="CV24" s="161"/>
+      <c r="CW24" s="161"/>
       <c r="CX24" s="107"/>
     </row>
     <row r="25" spans="1:102" s="61" customFormat="1" ht="18" x14ac:dyDescent="0.2">
@@ -8266,18 +8107,18 @@
         <v>3.4</v>
       </c>
       <c r="B25" s="125" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D25" s="126"/>
       <c r="E25" s="100">
-        <v>43649</v>
+        <v>43650</v>
       </c>
       <c r="F25" s="101">
         <f t="shared" si="43"/>
-        <v>43649</v>
+        <v>43651</v>
       </c>
       <c r="G25" s="62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H25" s="63">
         <v>0</v>
@@ -8289,318 +8130,318 @@
       <c r="M25" s="107"/>
       <c r="N25" s="107"/>
       <c r="O25" s="107"/>
-      <c r="P25" s="177"/>
-      <c r="Q25" s="177"/>
+      <c r="P25" s="161"/>
+      <c r="Q25" s="161"/>
       <c r="R25" s="107"/>
       <c r="S25" s="107"/>
       <c r="T25" s="107"/>
       <c r="U25" s="107"/>
       <c r="V25" s="107"/>
-      <c r="W25" s="177"/>
-      <c r="X25" s="177"/>
+      <c r="W25" s="161"/>
+      <c r="X25" s="161"/>
       <c r="Y25" s="107"/>
       <c r="Z25" s="107"/>
       <c r="AA25" s="107"/>
       <c r="AB25" s="107"/>
       <c r="AC25" s="107"/>
-      <c r="AD25" s="177"/>
-      <c r="AE25" s="177"/>
+      <c r="AD25" s="161"/>
+      <c r="AE25" s="161"/>
       <c r="AF25" s="107"/>
       <c r="AG25" s="107"/>
       <c r="AH25" s="107"/>
       <c r="AI25" s="107"/>
       <c r="AJ25" s="107"/>
-      <c r="AK25" s="177"/>
-      <c r="AL25" s="177"/>
+      <c r="AK25" s="161"/>
+      <c r="AL25" s="161"/>
       <c r="AM25" s="107"/>
       <c r="AN25" s="107"/>
       <c r="AO25" s="107"/>
       <c r="AP25" s="107"/>
       <c r="AQ25" s="107"/>
-      <c r="AR25" s="177"/>
-      <c r="AS25" s="177"/>
+      <c r="AR25" s="161"/>
+      <c r="AS25" s="161"/>
       <c r="AT25" s="107"/>
       <c r="AU25" s="107"/>
       <c r="AV25" s="107"/>
       <c r="AW25" s="107"/>
       <c r="AX25" s="107"/>
-      <c r="AY25" s="177"/>
-      <c r="AZ25" s="177"/>
+      <c r="AY25" s="161"/>
+      <c r="AZ25" s="161"/>
       <c r="BA25" s="107"/>
       <c r="BB25" s="107"/>
       <c r="BC25" s="107"/>
       <c r="BD25" s="107"/>
       <c r="BE25" s="107"/>
-      <c r="BF25" s="177"/>
-      <c r="BG25" s="177"/>
+      <c r="BF25" s="161"/>
+      <c r="BG25" s="161"/>
       <c r="BH25" s="107"/>
       <c r="BI25" s="107"/>
       <c r="BJ25" s="107"/>
       <c r="BK25" s="107"/>
       <c r="BL25" s="107"/>
-      <c r="BM25" s="177"/>
-      <c r="BN25" s="177"/>
+      <c r="BM25" s="161"/>
+      <c r="BN25" s="161"/>
       <c r="BO25" s="107"/>
       <c r="BP25" s="107"/>
       <c r="BQ25" s="107"/>
       <c r="BR25" s="107"/>
       <c r="BS25" s="107"/>
-      <c r="BT25" s="177"/>
-      <c r="BU25" s="177"/>
+      <c r="BT25" s="161"/>
+      <c r="BU25" s="161"/>
       <c r="BV25" s="107"/>
       <c r="BW25" s="107"/>
       <c r="BX25" s="107"/>
       <c r="BY25" s="107"/>
       <c r="BZ25" s="107"/>
-      <c r="CA25" s="177"/>
-      <c r="CB25" s="177"/>
+      <c r="CA25" s="161"/>
+      <c r="CB25" s="161"/>
       <c r="CC25" s="107"/>
       <c r="CD25" s="107"/>
       <c r="CE25" s="107"/>
       <c r="CF25" s="107"/>
       <c r="CG25" s="107"/>
-      <c r="CH25" s="177"/>
-      <c r="CI25" s="177"/>
+      <c r="CH25" s="161"/>
+      <c r="CI25" s="161"/>
       <c r="CJ25" s="107"/>
       <c r="CK25" s="107"/>
       <c r="CL25" s="107"/>
       <c r="CM25" s="107"/>
       <c r="CN25" s="107"/>
-      <c r="CO25" s="177"/>
-      <c r="CP25" s="177"/>
+      <c r="CO25" s="161"/>
+      <c r="CP25" s="161"/>
       <c r="CQ25" s="107"/>
       <c r="CR25" s="107"/>
       <c r="CS25" s="107"/>
       <c r="CT25" s="107"/>
       <c r="CU25" s="107"/>
-      <c r="CV25" s="177"/>
-      <c r="CW25" s="177"/>
+      <c r="CV25" s="161"/>
+      <c r="CW25" s="161"/>
       <c r="CX25" s="107"/>
     </row>
-    <row r="26" spans="1:102" s="61" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A26" s="60" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.5</v>
-      </c>
-      <c r="B26" s="125" t="s">
-        <v>152</v>
-      </c>
-      <c r="D26" s="126"/>
-      <c r="E26" s="100">
-        <v>43650</v>
-      </c>
-      <c r="F26" s="101">
-        <f t="shared" si="43"/>
-        <v>43651</v>
-      </c>
-      <c r="G26" s="62">
-        <v>2</v>
-      </c>
-      <c r="H26" s="63">
-        <v>0</v>
-      </c>
-      <c r="I26" s="64"/>
-      <c r="J26" s="95"/>
-      <c r="K26" s="107"/>
-      <c r="L26" s="107"/>
-      <c r="M26" s="107"/>
-      <c r="N26" s="107"/>
-      <c r="O26" s="107"/>
-      <c r="P26" s="177"/>
-      <c r="Q26" s="177"/>
-      <c r="R26" s="107"/>
-      <c r="S26" s="107"/>
-      <c r="T26" s="107"/>
-      <c r="U26" s="107"/>
-      <c r="V26" s="107"/>
-      <c r="W26" s="177"/>
-      <c r="X26" s="177"/>
-      <c r="Y26" s="107"/>
-      <c r="Z26" s="107"/>
-      <c r="AA26" s="107"/>
-      <c r="AB26" s="107"/>
-      <c r="AC26" s="107"/>
-      <c r="AD26" s="177"/>
-      <c r="AE26" s="177"/>
-      <c r="AF26" s="107"/>
-      <c r="AG26" s="107"/>
-      <c r="AH26" s="107"/>
-      <c r="AI26" s="107"/>
-      <c r="AJ26" s="107"/>
-      <c r="AK26" s="177"/>
-      <c r="AL26" s="177"/>
-      <c r="AM26" s="107"/>
-      <c r="AN26" s="107"/>
-      <c r="AO26" s="107"/>
-      <c r="AP26" s="107"/>
-      <c r="AQ26" s="107"/>
-      <c r="AR26" s="177"/>
-      <c r="AS26" s="177"/>
-      <c r="AT26" s="107"/>
-      <c r="AU26" s="107"/>
-      <c r="AV26" s="107"/>
-      <c r="AW26" s="107"/>
-      <c r="AX26" s="107"/>
-      <c r="AY26" s="177"/>
-      <c r="AZ26" s="177"/>
-      <c r="BA26" s="107"/>
-      <c r="BB26" s="107"/>
-      <c r="BC26" s="107"/>
-      <c r="BD26" s="107"/>
-      <c r="BE26" s="107"/>
-      <c r="BF26" s="177"/>
-      <c r="BG26" s="177"/>
-      <c r="BH26" s="107"/>
-      <c r="BI26" s="107"/>
-      <c r="BJ26" s="107"/>
-      <c r="BK26" s="107"/>
-      <c r="BL26" s="107"/>
-      <c r="BM26" s="177"/>
-      <c r="BN26" s="177"/>
-      <c r="BO26" s="107"/>
-      <c r="BP26" s="107"/>
-      <c r="BQ26" s="107"/>
-      <c r="BR26" s="107"/>
-      <c r="BS26" s="107"/>
-      <c r="BT26" s="177"/>
-      <c r="BU26" s="177"/>
-      <c r="BV26" s="107"/>
-      <c r="BW26" s="107"/>
-      <c r="BX26" s="107"/>
-      <c r="BY26" s="107"/>
-      <c r="BZ26" s="107"/>
-      <c r="CA26" s="177"/>
-      <c r="CB26" s="177"/>
-      <c r="CC26" s="107"/>
-      <c r="CD26" s="107"/>
-      <c r="CE26" s="107"/>
-      <c r="CF26" s="107"/>
-      <c r="CG26" s="107"/>
-      <c r="CH26" s="177"/>
-      <c r="CI26" s="177"/>
-      <c r="CJ26" s="107"/>
-      <c r="CK26" s="107"/>
-      <c r="CL26" s="107"/>
-      <c r="CM26" s="107"/>
-      <c r="CN26" s="107"/>
-      <c r="CO26" s="177"/>
-      <c r="CP26" s="177"/>
-      <c r="CQ26" s="107"/>
-      <c r="CR26" s="107"/>
-      <c r="CS26" s="107"/>
-      <c r="CT26" s="107"/>
-      <c r="CU26" s="107"/>
-      <c r="CV26" s="177"/>
-      <c r="CW26" s="177"/>
-      <c r="CX26" s="107"/>
-    </row>
-    <row r="27" spans="1:102" s="55" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="53" t="str">
+    <row r="26" spans="1:102" s="55" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A26" s="53" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>4</v>
       </c>
-      <c r="B27" s="54" t="s">
+      <c r="B26" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="D27" s="56"/>
-      <c r="E27" s="102"/>
-      <c r="F27" s="102" t="str">
+      <c r="D26" s="56"/>
+      <c r="E26" s="102"/>
+      <c r="F26" s="102" t="str">
         <f t="shared" si="43"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G27" s="57"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="59" t="str">
+      <c r="G26" s="57"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="59" t="str">
         <f t="shared" si="41"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J27" s="96"/>
-      <c r="K27" s="108"/>
-      <c r="L27" s="108"/>
-      <c r="M27" s="108"/>
-      <c r="N27" s="108"/>
-      <c r="O27" s="108"/>
-      <c r="P27" s="108"/>
-      <c r="Q27" s="108"/>
-      <c r="R27" s="108"/>
-      <c r="S27" s="108"/>
-      <c r="T27" s="108"/>
-      <c r="U27" s="108"/>
-      <c r="V27" s="108"/>
-      <c r="W27" s="108"/>
-      <c r="X27" s="108"/>
-      <c r="Y27" s="108"/>
-      <c r="Z27" s="108"/>
-      <c r="AA27" s="108"/>
-      <c r="AB27" s="108"/>
-      <c r="AC27" s="108"/>
-      <c r="AD27" s="108"/>
-      <c r="AE27" s="108"/>
-      <c r="AF27" s="108"/>
-      <c r="AG27" s="108"/>
-      <c r="AH27" s="108"/>
-      <c r="AI27" s="108"/>
-      <c r="AJ27" s="108"/>
-      <c r="AK27" s="108"/>
-      <c r="AL27" s="108"/>
-      <c r="AM27" s="108"/>
-      <c r="AN27" s="108"/>
-      <c r="AO27" s="108"/>
-      <c r="AP27" s="108"/>
-      <c r="AQ27" s="108"/>
-      <c r="AR27" s="108"/>
-      <c r="AS27" s="108"/>
-      <c r="AT27" s="108"/>
-      <c r="AU27" s="108"/>
-      <c r="AV27" s="108"/>
-      <c r="AW27" s="108"/>
-      <c r="AX27" s="108"/>
-      <c r="AY27" s="108"/>
-      <c r="AZ27" s="108"/>
-      <c r="BA27" s="108"/>
-      <c r="BB27" s="108"/>
-      <c r="BC27" s="108"/>
-      <c r="BD27" s="108"/>
-      <c r="BE27" s="108"/>
-      <c r="BF27" s="108"/>
-      <c r="BG27" s="108"/>
-      <c r="BH27" s="108"/>
-      <c r="BI27" s="108"/>
-      <c r="BJ27" s="108"/>
-      <c r="BK27" s="108"/>
-      <c r="BL27" s="108"/>
-      <c r="BM27" s="108"/>
-      <c r="BN27" s="108"/>
-      <c r="BO27" s="108"/>
-      <c r="BT27" s="108"/>
-      <c r="BU27" s="108"/>
-      <c r="CA27" s="108"/>
-      <c r="CB27" s="108"/>
-      <c r="CH27" s="108"/>
-      <c r="CI27" s="108"/>
-      <c r="CO27" s="108"/>
-      <c r="CP27" s="108"/>
-      <c r="CV27" s="108"/>
-      <c r="CW27" s="108"/>
+      <c r="J26" s="96"/>
+      <c r="K26" s="108"/>
+      <c r="L26" s="108"/>
+      <c r="M26" s="108"/>
+      <c r="N26" s="108"/>
+      <c r="O26" s="108"/>
+      <c r="P26" s="108"/>
+      <c r="Q26" s="108"/>
+      <c r="R26" s="108"/>
+      <c r="S26" s="108"/>
+      <c r="T26" s="108"/>
+      <c r="U26" s="108"/>
+      <c r="V26" s="108"/>
+      <c r="W26" s="108"/>
+      <c r="X26" s="108"/>
+      <c r="Y26" s="108"/>
+      <c r="Z26" s="108"/>
+      <c r="AA26" s="108"/>
+      <c r="AB26" s="108"/>
+      <c r="AC26" s="108"/>
+      <c r="AD26" s="108"/>
+      <c r="AE26" s="108"/>
+      <c r="AF26" s="108"/>
+      <c r="AG26" s="108"/>
+      <c r="AH26" s="108"/>
+      <c r="AI26" s="108"/>
+      <c r="AJ26" s="108"/>
+      <c r="AK26" s="108"/>
+      <c r="AL26" s="108"/>
+      <c r="AM26" s="108"/>
+      <c r="AN26" s="108"/>
+      <c r="AO26" s="108"/>
+      <c r="AP26" s="108"/>
+      <c r="AQ26" s="108"/>
+      <c r="AR26" s="108"/>
+      <c r="AS26" s="108"/>
+      <c r="AT26" s="108"/>
+      <c r="AU26" s="108"/>
+      <c r="AV26" s="108"/>
+      <c r="AW26" s="108"/>
+      <c r="AX26" s="108"/>
+      <c r="AY26" s="108"/>
+      <c r="AZ26" s="108"/>
+      <c r="BA26" s="108"/>
+      <c r="BB26" s="108"/>
+      <c r="BC26" s="108"/>
+      <c r="BD26" s="108"/>
+      <c r="BE26" s="108"/>
+      <c r="BF26" s="108"/>
+      <c r="BG26" s="108"/>
+      <c r="BH26" s="108"/>
+      <c r="BI26" s="108"/>
+      <c r="BJ26" s="108"/>
+      <c r="BK26" s="108"/>
+      <c r="BL26" s="108"/>
+      <c r="BM26" s="108"/>
+      <c r="BN26" s="108"/>
+      <c r="BO26" s="108"/>
+      <c r="BT26" s="108"/>
+      <c r="BU26" s="108"/>
+      <c r="CA26" s="108"/>
+      <c r="CB26" s="108"/>
+      <c r="CH26" s="108"/>
+      <c r="CI26" s="108"/>
+      <c r="CO26" s="108"/>
+      <c r="CP26" s="108"/>
+      <c r="CV26" s="108"/>
+      <c r="CW26" s="108"/>
+    </row>
+    <row r="27" spans="1:102" s="61" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A27" s="60" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.1</v>
+      </c>
+      <c r="B27" s="125" t="s">
+        <v>149</v>
+      </c>
+      <c r="D27" s="126"/>
+      <c r="E27" s="100">
+        <v>43654</v>
+      </c>
+      <c r="F27" s="101">
+        <f t="shared" si="43"/>
+        <v>43658</v>
+      </c>
+      <c r="G27" s="62">
+        <v>5</v>
+      </c>
+      <c r="H27" s="63">
+        <v>0</v>
+      </c>
+      <c r="I27" s="64"/>
+      <c r="J27" s="95"/>
+      <c r="K27" s="107"/>
+      <c r="L27" s="107"/>
+      <c r="M27" s="107"/>
+      <c r="N27" s="107"/>
+      <c r="O27" s="107"/>
+      <c r="P27" s="161"/>
+      <c r="Q27" s="161"/>
+      <c r="R27" s="107"/>
+      <c r="S27" s="107"/>
+      <c r="T27" s="107"/>
+      <c r="U27" s="107"/>
+      <c r="V27" s="107"/>
+      <c r="W27" s="161"/>
+      <c r="X27" s="161"/>
+      <c r="Y27" s="107"/>
+      <c r="Z27" s="107"/>
+      <c r="AA27" s="107"/>
+      <c r="AB27" s="107"/>
+      <c r="AC27" s="107"/>
+      <c r="AD27" s="161"/>
+      <c r="AE27" s="161"/>
+      <c r="AF27" s="107"/>
+      <c r="AG27" s="107"/>
+      <c r="AH27" s="107"/>
+      <c r="AI27" s="107"/>
+      <c r="AJ27" s="107"/>
+      <c r="AK27" s="161"/>
+      <c r="AL27" s="161"/>
+      <c r="AM27" s="107"/>
+      <c r="AN27" s="107"/>
+      <c r="AO27" s="107"/>
+      <c r="AP27" s="107"/>
+      <c r="AQ27" s="107"/>
+      <c r="AR27" s="161"/>
+      <c r="AS27" s="161"/>
+      <c r="AT27" s="107"/>
+      <c r="AU27" s="107"/>
+      <c r="AV27" s="107"/>
+      <c r="AW27" s="107"/>
+      <c r="AX27" s="107"/>
+      <c r="AY27" s="161"/>
+      <c r="AZ27" s="161"/>
+      <c r="BA27" s="107"/>
+      <c r="BB27" s="107"/>
+      <c r="BC27" s="107"/>
+      <c r="BD27" s="107"/>
+      <c r="BE27" s="107"/>
+      <c r="BF27" s="161"/>
+      <c r="BG27" s="161"/>
+      <c r="BH27" s="107"/>
+      <c r="BI27" s="107"/>
+      <c r="BJ27" s="107"/>
+      <c r="BK27" s="107"/>
+      <c r="BL27" s="107"/>
+      <c r="BM27" s="161"/>
+      <c r="BN27" s="161"/>
+      <c r="BO27" s="107"/>
+      <c r="BP27" s="107"/>
+      <c r="BQ27" s="107"/>
+      <c r="BR27" s="107"/>
+      <c r="BS27" s="107"/>
+      <c r="BT27" s="161"/>
+      <c r="BU27" s="161"/>
+      <c r="BV27" s="107"/>
+      <c r="BW27" s="107"/>
+      <c r="BX27" s="107"/>
+      <c r="BY27" s="107"/>
+      <c r="BZ27" s="107"/>
+      <c r="CA27" s="161"/>
+      <c r="CB27" s="161"/>
+      <c r="CC27" s="107"/>
+      <c r="CD27" s="107"/>
+      <c r="CE27" s="107"/>
+      <c r="CF27" s="107"/>
+      <c r="CG27" s="107"/>
+      <c r="CH27" s="161"/>
+      <c r="CI27" s="161"/>
+      <c r="CJ27" s="107"/>
+      <c r="CK27" s="107"/>
+      <c r="CL27" s="107"/>
+      <c r="CM27" s="107"/>
+      <c r="CN27" s="107"/>
+      <c r="CO27" s="161"/>
+      <c r="CP27" s="161"/>
+      <c r="CQ27" s="107"/>
+      <c r="CR27" s="107"/>
+      <c r="CS27" s="107"/>
+      <c r="CT27" s="107"/>
+      <c r="CU27" s="107"/>
+      <c r="CV27" s="161"/>
+      <c r="CW27" s="161"/>
+      <c r="CX27" s="107"/>
     </row>
     <row r="28" spans="1:102" s="61" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="60" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="B28" s="125" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D28" s="126"/>
       <c r="E28" s="100">
-        <v>43654</v>
+        <v>43661</v>
       </c>
       <c r="F28" s="101">
         <f t="shared" si="43"/>
-        <v>43658</v>
+        <v>43672</v>
       </c>
       <c r="G28" s="62">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H28" s="63">
         <v>0</v>
@@ -8612,112 +8453,112 @@
       <c r="M28" s="107"/>
       <c r="N28" s="107"/>
       <c r="O28" s="107"/>
-      <c r="P28" s="177"/>
-      <c r="Q28" s="177"/>
+      <c r="P28" s="161"/>
+      <c r="Q28" s="161"/>
       <c r="R28" s="107"/>
       <c r="S28" s="107"/>
       <c r="T28" s="107"/>
       <c r="U28" s="107"/>
       <c r="V28" s="107"/>
-      <c r="W28" s="177"/>
-      <c r="X28" s="177"/>
+      <c r="W28" s="161"/>
+      <c r="X28" s="161"/>
       <c r="Y28" s="107"/>
       <c r="Z28" s="107"/>
       <c r="AA28" s="107"/>
       <c r="AB28" s="107"/>
       <c r="AC28" s="107"/>
-      <c r="AD28" s="177"/>
-      <c r="AE28" s="177"/>
+      <c r="AD28" s="161"/>
+      <c r="AE28" s="161"/>
       <c r="AF28" s="107"/>
       <c r="AG28" s="107"/>
       <c r="AH28" s="107"/>
       <c r="AI28" s="107"/>
       <c r="AJ28" s="107"/>
-      <c r="AK28" s="177"/>
-      <c r="AL28" s="177"/>
+      <c r="AK28" s="161"/>
+      <c r="AL28" s="161"/>
       <c r="AM28" s="107"/>
       <c r="AN28" s="107"/>
       <c r="AO28" s="107"/>
       <c r="AP28" s="107"/>
       <c r="AQ28" s="107"/>
-      <c r="AR28" s="177"/>
-      <c r="AS28" s="177"/>
+      <c r="AR28" s="161"/>
+      <c r="AS28" s="161"/>
       <c r="AT28" s="107"/>
       <c r="AU28" s="107"/>
       <c r="AV28" s="107"/>
       <c r="AW28" s="107"/>
       <c r="AX28" s="107"/>
-      <c r="AY28" s="177"/>
-      <c r="AZ28" s="177"/>
+      <c r="AY28" s="161"/>
+      <c r="AZ28" s="161"/>
       <c r="BA28" s="107"/>
       <c r="BB28" s="107"/>
       <c r="BC28" s="107"/>
       <c r="BD28" s="107"/>
       <c r="BE28" s="107"/>
-      <c r="BF28" s="177"/>
-      <c r="BG28" s="177"/>
+      <c r="BF28" s="161"/>
+      <c r="BG28" s="161"/>
       <c r="BH28" s="107"/>
       <c r="BI28" s="107"/>
       <c r="BJ28" s="107"/>
       <c r="BK28" s="107"/>
       <c r="BL28" s="107"/>
-      <c r="BM28" s="177"/>
-      <c r="BN28" s="177"/>
+      <c r="BM28" s="161"/>
+      <c r="BN28" s="161"/>
       <c r="BO28" s="107"/>
       <c r="BP28" s="107"/>
       <c r="BQ28" s="107"/>
       <c r="BR28" s="107"/>
       <c r="BS28" s="107"/>
-      <c r="BT28" s="177"/>
-      <c r="BU28" s="177"/>
+      <c r="BT28" s="161"/>
+      <c r="BU28" s="161"/>
       <c r="BV28" s="107"/>
       <c r="BW28" s="107"/>
       <c r="BX28" s="107"/>
       <c r="BY28" s="107"/>
       <c r="BZ28" s="107"/>
-      <c r="CA28" s="177"/>
-      <c r="CB28" s="177"/>
+      <c r="CA28" s="161"/>
+      <c r="CB28" s="161"/>
       <c r="CC28" s="107"/>
       <c r="CD28" s="107"/>
       <c r="CE28" s="107"/>
       <c r="CF28" s="107"/>
       <c r="CG28" s="107"/>
-      <c r="CH28" s="177"/>
-      <c r="CI28" s="177"/>
+      <c r="CH28" s="161"/>
+      <c r="CI28" s="161"/>
       <c r="CJ28" s="107"/>
       <c r="CK28" s="107"/>
       <c r="CL28" s="107"/>
       <c r="CM28" s="107"/>
       <c r="CN28" s="107"/>
-      <c r="CO28" s="177"/>
-      <c r="CP28" s="177"/>
+      <c r="CO28" s="161"/>
+      <c r="CP28" s="161"/>
       <c r="CQ28" s="107"/>
       <c r="CR28" s="107"/>
       <c r="CS28" s="107"/>
       <c r="CT28" s="107"/>
       <c r="CU28" s="107"/>
-      <c r="CV28" s="177"/>
-      <c r="CW28" s="177"/>
+      <c r="CV28" s="161"/>
+      <c r="CW28" s="161"/>
       <c r="CX28" s="107"/>
     </row>
     <row r="29" spans="1:102" s="61" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="60" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="B29" s="125" t="s">
-        <v>150</v>
+        <v>8</v>
       </c>
       <c r="D29" s="126"/>
       <c r="E29" s="100">
-        <v>43661</v>
+        <v>43131</v>
       </c>
       <c r="F29" s="101">
         <f t="shared" si="43"/>
-        <v>43672</v>
+        <v>43131</v>
       </c>
       <c r="G29" s="62">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H29" s="63">
         <v>0</v>
@@ -8729,109 +8570,109 @@
       <c r="M29" s="107"/>
       <c r="N29" s="107"/>
       <c r="O29" s="107"/>
-      <c r="P29" s="177"/>
-      <c r="Q29" s="177"/>
+      <c r="P29" s="161"/>
+      <c r="Q29" s="161"/>
       <c r="R29" s="107"/>
       <c r="S29" s="107"/>
       <c r="T29" s="107"/>
       <c r="U29" s="107"/>
       <c r="V29" s="107"/>
-      <c r="W29" s="177"/>
-      <c r="X29" s="177"/>
+      <c r="W29" s="161"/>
+      <c r="X29" s="161"/>
       <c r="Y29" s="107"/>
       <c r="Z29" s="107"/>
       <c r="AA29" s="107"/>
       <c r="AB29" s="107"/>
       <c r="AC29" s="107"/>
-      <c r="AD29" s="177"/>
-      <c r="AE29" s="177"/>
+      <c r="AD29" s="161"/>
+      <c r="AE29" s="161"/>
       <c r="AF29" s="107"/>
       <c r="AG29" s="107"/>
       <c r="AH29" s="107"/>
       <c r="AI29" s="107"/>
       <c r="AJ29" s="107"/>
-      <c r="AK29" s="177"/>
-      <c r="AL29" s="177"/>
+      <c r="AK29" s="161"/>
+      <c r="AL29" s="161"/>
       <c r="AM29" s="107"/>
       <c r="AN29" s="107"/>
       <c r="AO29" s="107"/>
       <c r="AP29" s="107"/>
       <c r="AQ29" s="107"/>
-      <c r="AR29" s="177"/>
-      <c r="AS29" s="177"/>
+      <c r="AR29" s="161"/>
+      <c r="AS29" s="161"/>
       <c r="AT29" s="107"/>
       <c r="AU29" s="107"/>
       <c r="AV29" s="107"/>
       <c r="AW29" s="107"/>
       <c r="AX29" s="107"/>
-      <c r="AY29" s="177"/>
-      <c r="AZ29" s="177"/>
+      <c r="AY29" s="161"/>
+      <c r="AZ29" s="161"/>
       <c r="BA29" s="107"/>
       <c r="BB29" s="107"/>
       <c r="BC29" s="107"/>
       <c r="BD29" s="107"/>
       <c r="BE29" s="107"/>
-      <c r="BF29" s="177"/>
-      <c r="BG29" s="177"/>
+      <c r="BF29" s="161"/>
+      <c r="BG29" s="161"/>
       <c r="BH29" s="107"/>
       <c r="BI29" s="107"/>
       <c r="BJ29" s="107"/>
       <c r="BK29" s="107"/>
       <c r="BL29" s="107"/>
-      <c r="BM29" s="177"/>
-      <c r="BN29" s="177"/>
+      <c r="BM29" s="161"/>
+      <c r="BN29" s="161"/>
       <c r="BO29" s="107"/>
       <c r="BP29" s="107"/>
       <c r="BQ29" s="107"/>
       <c r="BR29" s="107"/>
       <c r="BS29" s="107"/>
-      <c r="BT29" s="177"/>
-      <c r="BU29" s="177"/>
+      <c r="BT29" s="161"/>
+      <c r="BU29" s="161"/>
       <c r="BV29" s="107"/>
       <c r="BW29" s="107"/>
       <c r="BX29" s="107"/>
       <c r="BY29" s="107"/>
       <c r="BZ29" s="107"/>
-      <c r="CA29" s="177"/>
-      <c r="CB29" s="177"/>
+      <c r="CA29" s="161"/>
+      <c r="CB29" s="161"/>
       <c r="CC29" s="107"/>
       <c r="CD29" s="107"/>
       <c r="CE29" s="107"/>
       <c r="CF29" s="107"/>
       <c r="CG29" s="107"/>
-      <c r="CH29" s="177"/>
-      <c r="CI29" s="177"/>
+      <c r="CH29" s="161"/>
+      <c r="CI29" s="161"/>
       <c r="CJ29" s="107"/>
       <c r="CK29" s="107"/>
       <c r="CL29" s="107"/>
       <c r="CM29" s="107"/>
       <c r="CN29" s="107"/>
-      <c r="CO29" s="177"/>
-      <c r="CP29" s="177"/>
+      <c r="CO29" s="161"/>
+      <c r="CP29" s="161"/>
       <c r="CQ29" s="107"/>
       <c r="CR29" s="107"/>
       <c r="CS29" s="107"/>
       <c r="CT29" s="107"/>
       <c r="CU29" s="107"/>
-      <c r="CV29" s="177"/>
-      <c r="CW29" s="177"/>
+      <c r="CV29" s="161"/>
+      <c r="CW29" s="161"/>
       <c r="CX29" s="107"/>
     </row>
     <row r="30" spans="1:102" s="61" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="60" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="B30" s="125" t="s">
         <v>8</v>
       </c>
       <c r="D30" s="126"/>
       <c r="E30" s="100">
-        <v>43131</v>
+        <v>43132</v>
       </c>
       <c r="F30" s="101">
         <f t="shared" si="43"/>
-        <v>43131</v>
+        <v>43132</v>
       </c>
       <c r="G30" s="62">
         <v>1</v>
@@ -8846,109 +8687,109 @@
       <c r="M30" s="107"/>
       <c r="N30" s="107"/>
       <c r="O30" s="107"/>
-      <c r="P30" s="177"/>
-      <c r="Q30" s="177"/>
+      <c r="P30" s="161"/>
+      <c r="Q30" s="161"/>
       <c r="R30" s="107"/>
       <c r="S30" s="107"/>
       <c r="T30" s="107"/>
       <c r="U30" s="107"/>
       <c r="V30" s="107"/>
-      <c r="W30" s="177"/>
-      <c r="X30" s="177"/>
+      <c r="W30" s="161"/>
+      <c r="X30" s="161"/>
       <c r="Y30" s="107"/>
       <c r="Z30" s="107"/>
       <c r="AA30" s="107"/>
       <c r="AB30" s="107"/>
       <c r="AC30" s="107"/>
-      <c r="AD30" s="177"/>
-      <c r="AE30" s="177"/>
+      <c r="AD30" s="161"/>
+      <c r="AE30" s="161"/>
       <c r="AF30" s="107"/>
       <c r="AG30" s="107"/>
       <c r="AH30" s="107"/>
       <c r="AI30" s="107"/>
       <c r="AJ30" s="107"/>
-      <c r="AK30" s="177"/>
-      <c r="AL30" s="177"/>
+      <c r="AK30" s="161"/>
+      <c r="AL30" s="161"/>
       <c r="AM30" s="107"/>
       <c r="AN30" s="107"/>
       <c r="AO30" s="107"/>
       <c r="AP30" s="107"/>
       <c r="AQ30" s="107"/>
-      <c r="AR30" s="177"/>
-      <c r="AS30" s="177"/>
+      <c r="AR30" s="161"/>
+      <c r="AS30" s="161"/>
       <c r="AT30" s="107"/>
       <c r="AU30" s="107"/>
       <c r="AV30" s="107"/>
       <c r="AW30" s="107"/>
       <c r="AX30" s="107"/>
-      <c r="AY30" s="177"/>
-      <c r="AZ30" s="177"/>
+      <c r="AY30" s="161"/>
+      <c r="AZ30" s="161"/>
       <c r="BA30" s="107"/>
       <c r="BB30" s="107"/>
       <c r="BC30" s="107"/>
       <c r="BD30" s="107"/>
       <c r="BE30" s="107"/>
-      <c r="BF30" s="177"/>
-      <c r="BG30" s="177"/>
+      <c r="BF30" s="161"/>
+      <c r="BG30" s="161"/>
       <c r="BH30" s="107"/>
       <c r="BI30" s="107"/>
       <c r="BJ30" s="107"/>
       <c r="BK30" s="107"/>
       <c r="BL30" s="107"/>
-      <c r="BM30" s="177"/>
-      <c r="BN30" s="177"/>
+      <c r="BM30" s="161"/>
+      <c r="BN30" s="161"/>
       <c r="BO30" s="107"/>
       <c r="BP30" s="107"/>
       <c r="BQ30" s="107"/>
       <c r="BR30" s="107"/>
       <c r="BS30" s="107"/>
-      <c r="BT30" s="177"/>
-      <c r="BU30" s="177"/>
+      <c r="BT30" s="161"/>
+      <c r="BU30" s="161"/>
       <c r="BV30" s="107"/>
       <c r="BW30" s="107"/>
       <c r="BX30" s="107"/>
       <c r="BY30" s="107"/>
       <c r="BZ30" s="107"/>
-      <c r="CA30" s="177"/>
-      <c r="CB30" s="177"/>
+      <c r="CA30" s="161"/>
+      <c r="CB30" s="161"/>
       <c r="CC30" s="107"/>
       <c r="CD30" s="107"/>
       <c r="CE30" s="107"/>
       <c r="CF30" s="107"/>
       <c r="CG30" s="107"/>
-      <c r="CH30" s="177"/>
-      <c r="CI30" s="177"/>
+      <c r="CH30" s="161"/>
+      <c r="CI30" s="161"/>
       <c r="CJ30" s="107"/>
       <c r="CK30" s="107"/>
       <c r="CL30" s="107"/>
       <c r="CM30" s="107"/>
       <c r="CN30" s="107"/>
-      <c r="CO30" s="177"/>
-      <c r="CP30" s="177"/>
+      <c r="CO30" s="161"/>
+      <c r="CP30" s="161"/>
       <c r="CQ30" s="107"/>
       <c r="CR30" s="107"/>
       <c r="CS30" s="107"/>
       <c r="CT30" s="107"/>
       <c r="CU30" s="107"/>
-      <c r="CV30" s="177"/>
-      <c r="CW30" s="177"/>
+      <c r="CV30" s="161"/>
+      <c r="CW30" s="161"/>
       <c r="CX30" s="107"/>
     </row>
     <row r="31" spans="1:102" s="61" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="60" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="B31" s="125" t="s">
         <v>8</v>
       </c>
       <c r="D31" s="126"/>
       <c r="E31" s="100">
-        <v>43132</v>
+        <v>43133</v>
       </c>
       <c r="F31" s="101">
         <f t="shared" si="43"/>
-        <v>43132</v>
+        <v>43133</v>
       </c>
       <c r="G31" s="62">
         <v>1</v>
@@ -8963,210 +8804,165 @@
       <c r="M31" s="107"/>
       <c r="N31" s="107"/>
       <c r="O31" s="107"/>
-      <c r="P31" s="177"/>
-      <c r="Q31" s="177"/>
+      <c r="P31" s="161"/>
+      <c r="Q31" s="161"/>
       <c r="R31" s="107"/>
       <c r="S31" s="107"/>
       <c r="T31" s="107"/>
       <c r="U31" s="107"/>
       <c r="V31" s="107"/>
-      <c r="W31" s="177"/>
-      <c r="X31" s="177"/>
+      <c r="W31" s="161"/>
+      <c r="X31" s="161"/>
       <c r="Y31" s="107"/>
       <c r="Z31" s="107"/>
       <c r="AA31" s="107"/>
       <c r="AB31" s="107"/>
       <c r="AC31" s="107"/>
-      <c r="AD31" s="177"/>
-      <c r="AE31" s="177"/>
+      <c r="AD31" s="161"/>
+      <c r="AE31" s="161"/>
       <c r="AF31" s="107"/>
       <c r="AG31" s="107"/>
       <c r="AH31" s="107"/>
       <c r="AI31" s="107"/>
       <c r="AJ31" s="107"/>
-      <c r="AK31" s="177"/>
-      <c r="AL31" s="177"/>
+      <c r="AK31" s="161"/>
+      <c r="AL31" s="161"/>
       <c r="AM31" s="107"/>
       <c r="AN31" s="107"/>
       <c r="AO31" s="107"/>
       <c r="AP31" s="107"/>
       <c r="AQ31" s="107"/>
-      <c r="AR31" s="177"/>
-      <c r="AS31" s="177"/>
+      <c r="AR31" s="161"/>
+      <c r="AS31" s="161"/>
       <c r="AT31" s="107"/>
       <c r="AU31" s="107"/>
       <c r="AV31" s="107"/>
       <c r="AW31" s="107"/>
       <c r="AX31" s="107"/>
-      <c r="AY31" s="177"/>
-      <c r="AZ31" s="177"/>
+      <c r="AY31" s="161"/>
+      <c r="AZ31" s="161"/>
       <c r="BA31" s="107"/>
       <c r="BB31" s="107"/>
       <c r="BC31" s="107"/>
       <c r="BD31" s="107"/>
       <c r="BE31" s="107"/>
-      <c r="BF31" s="177"/>
-      <c r="BG31" s="177"/>
+      <c r="BF31" s="161"/>
+      <c r="BG31" s="161"/>
       <c r="BH31" s="107"/>
       <c r="BI31" s="107"/>
       <c r="BJ31" s="107"/>
       <c r="BK31" s="107"/>
       <c r="BL31" s="107"/>
-      <c r="BM31" s="177"/>
-      <c r="BN31" s="177"/>
+      <c r="BM31" s="161"/>
+      <c r="BN31" s="161"/>
       <c r="BO31" s="107"/>
       <c r="BP31" s="107"/>
       <c r="BQ31" s="107"/>
       <c r="BR31" s="107"/>
       <c r="BS31" s="107"/>
-      <c r="BT31" s="177"/>
-      <c r="BU31" s="177"/>
+      <c r="BT31" s="161"/>
+      <c r="BU31" s="161"/>
       <c r="BV31" s="107"/>
       <c r="BW31" s="107"/>
       <c r="BX31" s="107"/>
       <c r="BY31" s="107"/>
       <c r="BZ31" s="107"/>
-      <c r="CA31" s="177"/>
-      <c r="CB31" s="177"/>
+      <c r="CA31" s="161"/>
+      <c r="CB31" s="161"/>
       <c r="CC31" s="107"/>
       <c r="CD31" s="107"/>
       <c r="CE31" s="107"/>
       <c r="CF31" s="107"/>
       <c r="CG31" s="107"/>
-      <c r="CH31" s="177"/>
-      <c r="CI31" s="177"/>
+      <c r="CH31" s="161"/>
+      <c r="CI31" s="161"/>
       <c r="CJ31" s="107"/>
       <c r="CK31" s="107"/>
       <c r="CL31" s="107"/>
       <c r="CM31" s="107"/>
       <c r="CN31" s="107"/>
-      <c r="CO31" s="177"/>
-      <c r="CP31" s="177"/>
+      <c r="CO31" s="161"/>
+      <c r="CP31" s="161"/>
       <c r="CQ31" s="107"/>
       <c r="CR31" s="107"/>
       <c r="CS31" s="107"/>
       <c r="CT31" s="107"/>
       <c r="CU31" s="107"/>
-      <c r="CV31" s="177"/>
-      <c r="CW31" s="177"/>
+      <c r="CV31" s="161"/>
+      <c r="CW31" s="161"/>
       <c r="CX31" s="107"/>
     </row>
-    <row r="32" spans="1:102" s="61" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A32" s="60" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.5</v>
-      </c>
-      <c r="B32" s="125" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="126"/>
-      <c r="E32" s="100">
-        <v>43133</v>
-      </c>
-      <c r="F32" s="101">
-        <f t="shared" si="43"/>
-        <v>43133</v>
-      </c>
-      <c r="G32" s="62">
-        <v>1</v>
-      </c>
-      <c r="H32" s="63">
-        <v>0</v>
-      </c>
-      <c r="I32" s="64"/>
-      <c r="J32" s="95"/>
+    <row r="32" spans="1:102" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A32" s="60"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="103"/>
+      <c r="F32" s="103"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="68"/>
+      <c r="I32" s="69" t="str">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J32" s="97"/>
       <c r="K32" s="107"/>
       <c r="L32" s="107"/>
       <c r="M32" s="107"/>
       <c r="N32" s="107"/>
       <c r="O32" s="107"/>
-      <c r="P32" s="177"/>
-      <c r="Q32" s="177"/>
+      <c r="P32" s="107"/>
+      <c r="Q32" s="107"/>
       <c r="R32" s="107"/>
       <c r="S32" s="107"/>
       <c r="T32" s="107"/>
       <c r="U32" s="107"/>
       <c r="V32" s="107"/>
-      <c r="W32" s="177"/>
-      <c r="X32" s="177"/>
+      <c r="W32" s="107"/>
+      <c r="X32" s="107"/>
       <c r="Y32" s="107"/>
       <c r="Z32" s="107"/>
       <c r="AA32" s="107"/>
       <c r="AB32" s="107"/>
       <c r="AC32" s="107"/>
-      <c r="AD32" s="177"/>
-      <c r="AE32" s="177"/>
+      <c r="AD32" s="107"/>
+      <c r="AE32" s="107"/>
       <c r="AF32" s="107"/>
       <c r="AG32" s="107"/>
       <c r="AH32" s="107"/>
       <c r="AI32" s="107"/>
       <c r="AJ32" s="107"/>
-      <c r="AK32" s="177"/>
-      <c r="AL32" s="177"/>
+      <c r="AK32" s="107"/>
+      <c r="AL32" s="107"/>
       <c r="AM32" s="107"/>
       <c r="AN32" s="107"/>
       <c r="AO32" s="107"/>
       <c r="AP32" s="107"/>
       <c r="AQ32" s="107"/>
-      <c r="AR32" s="177"/>
-      <c r="AS32" s="177"/>
+      <c r="AR32" s="107"/>
+      <c r="AS32" s="107"/>
       <c r="AT32" s="107"/>
       <c r="AU32" s="107"/>
       <c r="AV32" s="107"/>
       <c r="AW32" s="107"/>
       <c r="AX32" s="107"/>
-      <c r="AY32" s="177"/>
-      <c r="AZ32" s="177"/>
+      <c r="AY32" s="107"/>
+      <c r="AZ32" s="107"/>
       <c r="BA32" s="107"/>
       <c r="BB32" s="107"/>
       <c r="BC32" s="107"/>
       <c r="BD32" s="107"/>
       <c r="BE32" s="107"/>
-      <c r="BF32" s="177"/>
-      <c r="BG32" s="177"/>
+      <c r="BF32" s="107"/>
+      <c r="BG32" s="107"/>
       <c r="BH32" s="107"/>
       <c r="BI32" s="107"/>
       <c r="BJ32" s="107"/>
       <c r="BK32" s="107"/>
       <c r="BL32" s="107"/>
-      <c r="BM32" s="177"/>
-      <c r="BN32" s="177"/>
+      <c r="BM32" s="107"/>
+      <c r="BN32" s="107"/>
       <c r="BO32" s="107"/>
-      <c r="BP32" s="107"/>
-      <c r="BQ32" s="107"/>
-      <c r="BR32" s="107"/>
-      <c r="BS32" s="107"/>
-      <c r="BT32" s="177"/>
-      <c r="BU32" s="177"/>
-      <c r="BV32" s="107"/>
-      <c r="BW32" s="107"/>
-      <c r="BX32" s="107"/>
-      <c r="BY32" s="107"/>
-      <c r="BZ32" s="107"/>
-      <c r="CA32" s="177"/>
-      <c r="CB32" s="177"/>
-      <c r="CC32" s="107"/>
-      <c r="CD32" s="107"/>
-      <c r="CE32" s="107"/>
-      <c r="CF32" s="107"/>
-      <c r="CG32" s="107"/>
-      <c r="CH32" s="177"/>
-      <c r="CI32" s="177"/>
-      <c r="CJ32" s="107"/>
-      <c r="CK32" s="107"/>
-      <c r="CL32" s="107"/>
-      <c r="CM32" s="107"/>
-      <c r="CN32" s="107"/>
-      <c r="CO32" s="177"/>
-      <c r="CP32" s="177"/>
-      <c r="CQ32" s="107"/>
-      <c r="CR32" s="107"/>
-      <c r="CS32" s="107"/>
-      <c r="CT32" s="107"/>
-      <c r="CU32" s="107"/>
-      <c r="CV32" s="177"/>
-      <c r="CW32" s="177"/>
-      <c r="CX32" s="107"/>
     </row>
     <row r="33" spans="1:67" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="60"/>
@@ -9240,20 +9036,19 @@
       <c r="BN33" s="107"/>
       <c r="BO33" s="107"/>
     </row>
-    <row r="34" spans="1:67" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A34" s="60"/>
-      <c r="B34" s="65"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="66"/>
-      <c r="E34" s="103"/>
-      <c r="F34" s="103"/>
-      <c r="G34" s="67"/>
-      <c r="H34" s="68"/>
-      <c r="I34" s="69" t="str">
-        <f t="shared" si="41"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J34" s="97"/>
+    <row r="34" spans="1:67" s="75" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A34" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="72"/>
+      <c r="C34" s="73"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="104"/>
+      <c r="F34" s="104"/>
+      <c r="G34" s="74"/>
+      <c r="H34" s="74"/>
+      <c r="I34" s="74"/>
+      <c r="J34" s="98"/>
       <c r="K34" s="107"/>
       <c r="L34" s="107"/>
       <c r="M34" s="107"/>
@@ -9312,18 +9107,18 @@
       <c r="BN34" s="107"/>
       <c r="BO34" s="107"/>
     </row>
-    <row r="35" spans="1:67" s="75" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A35" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="72"/>
-      <c r="C35" s="73"/>
-      <c r="D35" s="73"/>
-      <c r="E35" s="104"/>
-      <c r="F35" s="104"/>
-      <c r="G35" s="74"/>
-      <c r="H35" s="74"/>
-      <c r="I35" s="74"/>
+    <row r="35" spans="1:67" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A35" s="76" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="77"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="105"/>
+      <c r="F35" s="105"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="77"/>
+      <c r="I35" s="77"/>
       <c r="J35" s="98"/>
       <c r="K35" s="107"/>
       <c r="L35" s="107"/>
@@ -9384,18 +9179,27 @@
       <c r="BO35" s="107"/>
     </row>
     <row r="36" spans="1:67" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A36" s="76" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" s="77"/>
-      <c r="C36" s="77"/>
-      <c r="D36" s="77"/>
-      <c r="E36" s="105"/>
-      <c r="F36" s="105"/>
-      <c r="G36" s="77"/>
-      <c r="H36" s="77"/>
-      <c r="I36" s="77"/>
-      <c r="J36" s="98"/>
+      <c r="A36" s="128" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>1</v>
+      </c>
+      <c r="B36" s="129" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="78"/>
+      <c r="D36" s="79"/>
+      <c r="E36" s="100"/>
+      <c r="F36" s="101" t="str">
+        <f t="shared" ref="F36:F39" si="46">IF(ISBLANK(E36)," - ",IF(G36=0,E36,E36+G36-1))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G36" s="62"/>
+      <c r="H36" s="63"/>
+      <c r="I36" s="80" t="str">
+        <f>IF(OR(F36=0,E36=0)," - ",NETWORKDAYS(E36,F36))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J36" s="99"/>
       <c r="K36" s="107"/>
       <c r="L36" s="107"/>
       <c r="M36" s="107"/>
@@ -9455,24 +9259,24 @@
       <c r="BO36" s="107"/>
     </row>
     <row r="37" spans="1:67" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A37" s="128" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>1</v>
-      </c>
-      <c r="B37" s="129" t="s">
-        <v>77</v>
-      </c>
-      <c r="C37" s="78"/>
+      <c r="A37" s="60" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>1.1</v>
+      </c>
+      <c r="B37" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="81"/>
       <c r="D37" s="79"/>
       <c r="E37" s="100"/>
       <c r="F37" s="101" t="str">
-        <f t="shared" ref="F37:F40" si="46">IF(ISBLANK(E37)," - ",IF(G37=0,E37,E37+G37-1))</f>
+        <f t="shared" si="46"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G37" s="62"/>
       <c r="H37" s="63"/>
       <c r="I37" s="80" t="str">
-        <f>IF(OR(F37=0,E37=0)," - ",NETWORKDAYS(E37,F37))</f>
+        <f t="shared" ref="I37:I39" si="47">IF(OR(F37=0,E37=0)," - ",NETWORKDAYS(E37,F37))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J37" s="99"/>
@@ -9536,11 +9340,11 @@
     </row>
     <row r="38" spans="1:67" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" s="60" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>1.1</v>
-      </c>
-      <c r="B38" s="81" t="s">
-        <v>63</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>1.1.1</v>
+      </c>
+      <c r="B38" s="82" t="s">
+        <v>64</v>
       </c>
       <c r="C38" s="81"/>
       <c r="D38" s="79"/>
@@ -9552,7 +9356,7 @@
       <c r="G38" s="62"/>
       <c r="H38" s="63"/>
       <c r="I38" s="80" t="str">
-        <f t="shared" ref="I38:I40" si="47">IF(OR(F38=0,E38=0)," - ",NETWORKDAYS(E38,F38))</f>
+        <f t="shared" si="47"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J38" s="99"/>
@@ -9616,11 +9420,11 @@
     </row>
     <row r="39" spans="1:67" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" s="60" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>1.1.1</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
+        <v>1.1.1.1</v>
       </c>
       <c r="B39" s="82" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C39" s="81"/>
       <c r="D39" s="79"/>
@@ -9694,167 +9498,90 @@
       <c r="BN39" s="107"/>
       <c r="BO39" s="107"/>
     </row>
-    <row r="40" spans="1:67" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A40" s="60" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
-        <v>1.1.1.1</v>
-      </c>
-      <c r="B40" s="82" t="s">
-        <v>65</v>
-      </c>
-      <c r="C40" s="81"/>
-      <c r="D40" s="79"/>
-      <c r="E40" s="100"/>
-      <c r="F40" s="101" t="str">
-        <f t="shared" si="46"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G40" s="62"/>
-      <c r="H40" s="63"/>
-      <c r="I40" s="80" t="str">
-        <f t="shared" si="47"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J40" s="99"/>
-      <c r="K40" s="107"/>
-      <c r="L40" s="107"/>
-      <c r="M40" s="107"/>
-      <c r="N40" s="107"/>
-      <c r="O40" s="107"/>
-      <c r="P40" s="107"/>
-      <c r="Q40" s="107"/>
-      <c r="R40" s="107"/>
-      <c r="S40" s="107"/>
-      <c r="T40" s="107"/>
-      <c r="U40" s="107"/>
-      <c r="V40" s="107"/>
-      <c r="W40" s="107"/>
-      <c r="X40" s="107"/>
-      <c r="Y40" s="107"/>
-      <c r="Z40" s="107"/>
-      <c r="AA40" s="107"/>
-      <c r="AB40" s="107"/>
-      <c r="AC40" s="107"/>
-      <c r="AD40" s="107"/>
-      <c r="AE40" s="107"/>
-      <c r="AF40" s="107"/>
-      <c r="AG40" s="107"/>
-      <c r="AH40" s="107"/>
-      <c r="AI40" s="107"/>
-      <c r="AJ40" s="107"/>
-      <c r="AK40" s="107"/>
-      <c r="AL40" s="107"/>
-      <c r="AM40" s="107"/>
-      <c r="AN40" s="107"/>
-      <c r="AO40" s="107"/>
-      <c r="AP40" s="107"/>
-      <c r="AQ40" s="107"/>
-      <c r="AR40" s="107"/>
-      <c r="AS40" s="107"/>
-      <c r="AT40" s="107"/>
-      <c r="AU40" s="107"/>
-      <c r="AV40" s="107"/>
-      <c r="AW40" s="107"/>
-      <c r="AX40" s="107"/>
-      <c r="AY40" s="107"/>
-      <c r="AZ40" s="107"/>
-      <c r="BA40" s="107"/>
-      <c r="BB40" s="107"/>
-      <c r="BC40" s="107"/>
-      <c r="BD40" s="107"/>
-      <c r="BE40" s="107"/>
-      <c r="BF40" s="107"/>
-      <c r="BG40" s="107"/>
-      <c r="BH40" s="107"/>
-      <c r="BI40" s="107"/>
-      <c r="BJ40" s="107"/>
-      <c r="BK40" s="107"/>
-      <c r="BL40" s="107"/>
-      <c r="BM40" s="107"/>
-      <c r="BN40" s="107"/>
-      <c r="BO40" s="107"/>
-    </row>
-    <row r="41" spans="1:67" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="30"/>
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="31"/>
-      <c r="J41" s="31"/>
-      <c r="K41" s="31"/>
-      <c r="L41" s="31"/>
-      <c r="M41" s="31"/>
-      <c r="N41" s="31"/>
-      <c r="O41" s="31"/>
-      <c r="P41" s="31"/>
-      <c r="Q41" s="31"/>
-      <c r="R41" s="31"/>
-      <c r="S41" s="31"/>
-      <c r="T41" s="31"/>
-      <c r="U41" s="31"/>
-      <c r="V41" s="31"/>
-      <c r="W41" s="31"/>
-      <c r="X41" s="31"/>
-      <c r="Y41" s="31"/>
-      <c r="Z41" s="31"/>
-      <c r="AA41" s="31"/>
-      <c r="AB41" s="31"/>
-      <c r="AC41" s="31"/>
-      <c r="AD41" s="31"/>
-      <c r="AE41" s="31"/>
-      <c r="AF41" s="31"/>
-      <c r="AG41" s="31"/>
-      <c r="AH41" s="31"/>
-      <c r="AI41" s="31"/>
-      <c r="AJ41" s="31"/>
-      <c r="AK41" s="31"/>
-      <c r="AL41" s="31"/>
-      <c r="AM41" s="31"/>
-      <c r="AN41" s="31"/>
-      <c r="AO41" s="31"/>
-      <c r="AP41" s="31"/>
-      <c r="AQ41" s="31"/>
-      <c r="AR41" s="31"/>
-      <c r="AS41" s="31"/>
-      <c r="AT41" s="31"/>
-      <c r="AU41" s="31"/>
-      <c r="AV41" s="31"/>
-      <c r="AW41" s="31"/>
-      <c r="AX41" s="31"/>
-      <c r="AY41" s="31"/>
-      <c r="AZ41" s="31"/>
-      <c r="BA41" s="31"/>
-      <c r="BB41" s="31"/>
-      <c r="BC41" s="31"/>
-      <c r="BD41" s="31"/>
-      <c r="BE41" s="31"/>
-      <c r="BF41" s="31"/>
-      <c r="BG41" s="31"/>
-      <c r="BH41" s="31"/>
-      <c r="BI41" s="31"/>
-      <c r="BJ41" s="31"/>
-      <c r="BK41" s="31"/>
-      <c r="BL41" s="31"/>
-      <c r="BM41" s="31"/>
-      <c r="BN41" s="31"/>
-      <c r="BO41" s="31"/>
-    </row>
-    <row r="42" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="BO42" s="1"/>
+    <row r="40" spans="1:67" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="30"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="31"/>
+      <c r="N40" s="31"/>
+      <c r="O40" s="31"/>
+      <c r="P40" s="31"/>
+      <c r="Q40" s="31"/>
+      <c r="R40" s="31"/>
+      <c r="S40" s="31"/>
+      <c r="T40" s="31"/>
+      <c r="U40" s="31"/>
+      <c r="V40" s="31"/>
+      <c r="W40" s="31"/>
+      <c r="X40" s="31"/>
+      <c r="Y40" s="31"/>
+      <c r="Z40" s="31"/>
+      <c r="AA40" s="31"/>
+      <c r="AB40" s="31"/>
+      <c r="AC40" s="31"/>
+      <c r="AD40" s="31"/>
+      <c r="AE40" s="31"/>
+      <c r="AF40" s="31"/>
+      <c r="AG40" s="31"/>
+      <c r="AH40" s="31"/>
+      <c r="AI40" s="31"/>
+      <c r="AJ40" s="31"/>
+      <c r="AK40" s="31"/>
+      <c r="AL40" s="31"/>
+      <c r="AM40" s="31"/>
+      <c r="AN40" s="31"/>
+      <c r="AO40" s="31"/>
+      <c r="AP40" s="31"/>
+      <c r="AQ40" s="31"/>
+      <c r="AR40" s="31"/>
+      <c r="AS40" s="31"/>
+      <c r="AT40" s="31"/>
+      <c r="AU40" s="31"/>
+      <c r="AV40" s="31"/>
+      <c r="AW40" s="31"/>
+      <c r="AX40" s="31"/>
+      <c r="AY40" s="31"/>
+      <c r="AZ40" s="31"/>
+      <c r="BA40" s="31"/>
+      <c r="BB40" s="31"/>
+      <c r="BC40" s="31"/>
+      <c r="BD40" s="31"/>
+      <c r="BE40" s="31"/>
+      <c r="BF40" s="31"/>
+      <c r="BG40" s="31"/>
+      <c r="BH40" s="31"/>
+      <c r="BI40" s="31"/>
+      <c r="BJ40" s="31"/>
+      <c r="BK40" s="31"/>
+      <c r="BL40" s="31"/>
+      <c r="BM40" s="31"/>
+      <c r="BN40" s="31"/>
+      <c r="BO40" s="31"/>
+    </row>
+    <row r="41" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="BO41" s="1"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="29">
-    <mergeCell ref="CC4:CI4"/>
-    <mergeCell ref="CC5:CI5"/>
-    <mergeCell ref="CJ4:CP4"/>
-    <mergeCell ref="CJ5:CP5"/>
-    <mergeCell ref="CQ4:CW4"/>
-    <mergeCell ref="CQ5:CW5"/>
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
     <mergeCell ref="BO4:BU4"/>
     <mergeCell ref="BO5:BU5"/>
     <mergeCell ref="BV4:CB4"/>
@@ -9869,18 +9596,15 @@
     <mergeCell ref="AM4:AS4"/>
     <mergeCell ref="BA4:BG4"/>
     <mergeCell ref="BA5:BG5"/>
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
+    <mergeCell ref="CC4:CI4"/>
+    <mergeCell ref="CC5:CI5"/>
+    <mergeCell ref="CJ4:CP4"/>
+    <mergeCell ref="CJ5:CP5"/>
+    <mergeCell ref="CQ4:CW4"/>
+    <mergeCell ref="CQ5:CW5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="H10:H21 H8 H23:H40">
+  <conditionalFormatting sqref="H10:H21 H8 H23:H39">
     <cfRule type="dataBar" priority="239">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -9895,88 +9619,88 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:BN7">
-    <cfRule type="expression" dxfId="160" priority="282">
+    <cfRule type="expression" dxfId="147" priority="282">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:V8 K10:O12 K13:V13 K21:V21 R10:V12 K14:O20 R14:V20 Y8:AC8 AF8:AJ8 AM8:AQ8 AT8:AX8 BA8:BE8 BH8:BL8 BO14:BS20 BO12:BS12 BO21 BO13 BV12:BZ12 BV14:BZ20 CC14:CG20 CC12:CG12 CJ12:CN12 CJ14:CN20 CQ14:CU20 CQ12:CU12 K33:BO40 Y10:AC32 AF10:AJ32 AM10:AQ32 AT10:AX32 BA10:BE32 BH10:BL32 BO28:BS32 BO22:BS26 BO27 BV22:BZ26 BV28:BZ32 CC28:CG32 CC22:CG26 CJ22:CN26 CJ28:CN32 CQ28:CU32 CQ22:CU26 CX22:CX26 CX28:CX32 K22:X32 AD22:AE32 AK22:AL32 AR22:AS32 AY22:AZ32 BF22:BG32 BM22:BN32 BT22:BU32 CA22:CB32 CH22:CI32 CO22:CP32 CV22:CW32">
-    <cfRule type="expression" dxfId="159" priority="285">
+  <conditionalFormatting sqref="K8:V8 K10:O12 K13:V13 K21:V21 R10:V12 K14:O20 R14:V20 Y8:AC8 AF8:AJ8 AM8:AQ8 AT8:AX8 BA8:BE8 BH8:BL8 BO14:BS20 BO12:BS12 BO21 BO13 BV12:BZ12 BV14:BZ20 CC14:CG20 CC12:CG12 CJ12:CN12 CJ14:CN20 CQ14:CU20 CQ12:CU12 K32:BO39 Y10:AC31 AF10:AJ31 AM10:AQ31 AT10:AX31 BA10:BE31 BO27:BS31 BO22:BS25 BO26 BV22:BZ25 BV27:BZ31 CC27:CG31 CC22:CG25 CJ22:CN25 CJ27:CN31 CQ27:CU31 CQ22:CU25 CX22:CX25 CX27:CX31 K22:X31 AD22:AE31 AK22:AL31 AR22:AS31 AY22:AZ31 BF22:BG31 BM22:BN31 BT22:BU31 CA22:CB31 CH22:CI31 CO22:CP31 CV22:CW31 BH10:BL31">
+    <cfRule type="expression" dxfId="146" priority="285">
       <formula>AND($E8&lt;=K$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="286">
+    <cfRule type="expression" dxfId="145" priority="286">
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=K$6,$F8&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:BN7 K13:V13 K21:V21 K27:V27 K23:O26 K33:BN40 K28:O32 K10:O12 R10:V12 K14:O20 R14:V20 R23:V26 R28:V32 Y10:AC21 K8:V8 Y8:AC8 AF8:AJ8 AF10:AJ21 AM10:AQ21 AM8:AQ8 AT8:AX8 AT10:AX21 BA10:BE21 BA8:BE8 BH8:BL8 BH10:BL21 BO28:BS32 BO23:BS26 BO14:BS20 BO12:BS12 BV12:BZ12 BV14:BZ20 BV23:BZ26 BV28:BZ32 CC28:CG32 CC23:CG26 CC14:CG20 CC12:CG12 CJ12:CN12 CJ14:CN20 CJ23:CN26 CJ28:CN32 CQ28:CU32 CQ23:CU26 CQ14:CU20 CQ12:CU12 CX23:CX26 CX28:CX32 Y23:AC32 AF23:AJ32 AM23:AQ32 AT23:AX32 BA23:BE32 BH23:BL32">
-    <cfRule type="expression" dxfId="157" priority="245">
+  <conditionalFormatting sqref="K6:BN7 K13:V13 K21:V21 K26:V26 K32:BN39 K27:O31 K10:O12 R10:V12 K14:O20 R14:V20 R27:V31 Y10:AC21 K8:V8 Y8:AC8 AF8:AJ8 AF10:AJ21 AM10:AQ21 AM8:AQ8 AT8:AX8 AT10:AX21 BA10:BE21 BA8:BE8 BH8:BL8 BH10:BL21 BO27:BS31 BO14:BS20 BO12:BS12 BV12:BZ12 BV14:BZ20 BV27:BZ31 CC27:CG31 CC14:CG20 CC12:CG12 CJ12:CN12 CJ14:CN20 CJ27:CN31 CQ27:CU31 CQ14:CU20 CQ12:CU12 CX27:CX31 K23:O25 R23:V25 BO23:BS25 BV23:BZ25 CC23:CG25 CJ23:CN25 CQ23:CU25 CX23:CX25 Y23:AC31 AF23:AJ31 AM23:AQ31 AT23:AX31 BA23:BE31 P22:Q25 W22:X25 AD22:AE25 AK22:AL25 AR22:AS25 AY22:AZ25 BF22:BG25 BM22:BN25 BT22:BU25 CA22:CB25 CH22:CI25 CO22:CP25 CV22:CW25 BH23:BL31">
+    <cfRule type="expression" dxfId="144" priority="245">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BO8 BO13 BO21 BO27 BO33:BO40 BO10:BS11 BV10:BZ11 CC10:CG11 CJ10:CN11 CQ10:CU11">
-    <cfRule type="expression" dxfId="156" priority="201">
+  <conditionalFormatting sqref="BO8 BO13 BO21 BO26 BO32:BO39 BO10:BS11 BV10:BZ11 CC10:CG11 CJ10:CN11 CQ10:CU11">
+    <cfRule type="expression" dxfId="143" priority="201">
       <formula>BO$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO9:BS9 BV9:BZ9 CC9:CG9 CJ9:CN9 CQ9:CU9">
-    <cfRule type="expression" dxfId="155" priority="194">
+    <cfRule type="expression" dxfId="142" priority="194">
       <formula>BO$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO6:BU7">
-    <cfRule type="expression" dxfId="154" priority="231">
+    <cfRule type="expression" dxfId="141" priority="231">
       <formula>BO$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO6:BU7">
-    <cfRule type="expression" dxfId="153" priority="230">
+    <cfRule type="expression" dxfId="140" priority="230">
       <formula>BO$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BV6:CB7">
-    <cfRule type="expression" dxfId="152" priority="210">
+    <cfRule type="expression" dxfId="139" priority="210">
       <formula>BV$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CC6:CI7">
-    <cfRule type="expression" dxfId="151" priority="208">
+    <cfRule type="expression" dxfId="138" priority="208">
       <formula>CC$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO8 BO10:BS11 BV10:BZ11 CC10:CG11 CJ10:CN11 CQ10:CU11">
-    <cfRule type="expression" dxfId="150" priority="202">
+    <cfRule type="expression" dxfId="137" priority="202">
       <formula>AND($E8&lt;=BO$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=BO$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="149" priority="203">
+    <cfRule type="expression" dxfId="136" priority="203">
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=BO$6,$F8&gt;=BO$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BV6:CB7">
-    <cfRule type="expression" dxfId="148" priority="211">
+    <cfRule type="expression" dxfId="135" priority="211">
       <formula>BV$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CC6:CI7">
-    <cfRule type="expression" dxfId="147" priority="209">
+    <cfRule type="expression" dxfId="134" priority="209">
       <formula>CC$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CQ6:CW7">
-    <cfRule type="expression" dxfId="146" priority="204">
+    <cfRule type="expression" dxfId="133" priority="204">
       <formula>CQ$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CJ6:CP7">
-    <cfRule type="expression" dxfId="145" priority="207">
+    <cfRule type="expression" dxfId="132" priority="207">
       <formula>CJ$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CJ6:CP7">
-    <cfRule type="expression" dxfId="144" priority="206">
+    <cfRule type="expression" dxfId="131" priority="206">
       <formula>CJ$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CQ6:CW7">
-    <cfRule type="expression" dxfId="143" priority="205">
+    <cfRule type="expression" dxfId="130" priority="205">
       <formula>CQ$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9995,23 +9719,23 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:V9 P10:Q12 Y9:AC9 AF9:AJ9 AM9:AQ9 AT9:AX9 BA9:BE9 BH9:BL9">
-    <cfRule type="expression" dxfId="142" priority="199">
+    <cfRule type="expression" dxfId="129" priority="199">
       <formula>AND($E9&lt;=K$6,ROUNDDOWN(($F9-$E9+1)*$H9,0)+$E9-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="200">
+    <cfRule type="expression" dxfId="128" priority="200">
       <formula>AND(NOT(ISBLANK($E9)),$E9&lt;=K$6,$F9&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:V9 P10:Q12 Y9:AC9 AF9:AJ9 AM9:AQ9 AT9:AX9 BA9:BE9 BH9:BL9">
-    <cfRule type="expression" dxfId="140" priority="198">
+    <cfRule type="expression" dxfId="127" priority="198">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO9:BS9 BV9:BZ9 CC9:CG9 CJ9:CN9 CQ9:CU9">
-    <cfRule type="expression" dxfId="139" priority="195">
+    <cfRule type="expression" dxfId="126" priority="195">
       <formula>AND($E9&lt;=BO$6,ROUNDDOWN(($F9-$E9+1)*$H9,0)+$E9-1&gt;=BO$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="196">
+    <cfRule type="expression" dxfId="125" priority="196">
       <formula>AND(NOT(ISBLANK($E9)),$E9&lt;=BO$6,$F9&gt;=BO$6)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10030,618 +9754,553 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22:O22 R22:V22 Y22:AC22 AF22:AJ22 AM22:AQ22 AT22:AX22 BA22:BE22 BH22:BL22 BO22:BS22 BV22:BZ22 CC22:CG22 CJ22:CN22 CQ22:CU22 CX22">
-    <cfRule type="expression" dxfId="137" priority="191">
+    <cfRule type="expression" dxfId="124" priority="191">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P14:Q20">
-    <cfRule type="expression" dxfId="136" priority="188">
+    <cfRule type="expression" dxfId="123" priority="188">
       <formula>AND($E14&lt;=P$6,ROUNDDOWN(($F14-$E14+1)*$H14,0)+$E14-1&gt;=P$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="189">
+    <cfRule type="expression" dxfId="122" priority="189">
       <formula>AND(NOT(ISBLANK($E14)),$E14&lt;=P$6,$F14&gt;=P$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P14:Q20">
-    <cfRule type="expression" dxfId="134" priority="187">
+    <cfRule type="expression" dxfId="121" priority="187">
       <formula>P$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CV28:CW32">
-    <cfRule type="expression" dxfId="133" priority="1">
+  <conditionalFormatting sqref="CV27:CW31">
+    <cfRule type="expression" dxfId="120" priority="1">
       <formula>CV$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P22:Q26">
-    <cfRule type="expression" dxfId="132" priority="184">
-      <formula>P$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P28:Q32">
-    <cfRule type="expression" dxfId="131" priority="181">
+  <conditionalFormatting sqref="P27:Q31">
+    <cfRule type="expression" dxfId="119" priority="181">
       <formula>P$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W8:X8 W13:X13 W21:X21">
-    <cfRule type="expression" dxfId="130" priority="179">
+    <cfRule type="expression" dxfId="118" priority="179">
       <formula>AND($E8&lt;=W$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="180">
+    <cfRule type="expression" dxfId="117" priority="180">
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=W$6,$F8&gt;=W$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W13:X13 W21:X21 W27:X27 W8:X8">
-    <cfRule type="expression" dxfId="128" priority="178">
+  <conditionalFormatting sqref="W13:X13 W21:X21 W26:X26 W8:X8">
+    <cfRule type="expression" dxfId="116" priority="178">
       <formula>W$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W9:X12">
-    <cfRule type="expression" dxfId="127" priority="176">
+    <cfRule type="expression" dxfId="115" priority="176">
       <formula>AND($E9&lt;=W$6,ROUNDDOWN(($F9-$E9+1)*$H9,0)+$E9-1&gt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="177">
+    <cfRule type="expression" dxfId="114" priority="177">
       <formula>AND(NOT(ISBLANK($E9)),$E9&lt;=W$6,$F9&gt;=W$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W9:X12">
-    <cfRule type="expression" dxfId="125" priority="175">
+    <cfRule type="expression" dxfId="113" priority="175">
       <formula>W$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W14:X20">
-    <cfRule type="expression" dxfId="124" priority="173">
+    <cfRule type="expression" dxfId="112" priority="173">
       <formula>AND($E14&lt;=W$6,ROUNDDOWN(($F14-$E14+1)*$H14,0)+$E14-1&gt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="174">
+    <cfRule type="expression" dxfId="111" priority="174">
       <formula>AND(NOT(ISBLANK($E14)),$E14&lt;=W$6,$F14&gt;=W$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W14:X20">
-    <cfRule type="expression" dxfId="122" priority="172">
+    <cfRule type="expression" dxfId="110" priority="172">
       <formula>W$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W22:X26">
-    <cfRule type="expression" dxfId="121" priority="169">
-      <formula>W$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W28:X32">
-    <cfRule type="expression" dxfId="120" priority="166">
+  <conditionalFormatting sqref="W27:X31">
+    <cfRule type="expression" dxfId="109" priority="166">
       <formula>W$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD8:AE8 AD13:AE13 AD21:AE21">
-    <cfRule type="expression" dxfId="119" priority="164">
+    <cfRule type="expression" dxfId="108" priority="164">
       <formula>AND($E8&lt;=AD$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=AD$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="165">
+    <cfRule type="expression" dxfId="107" priority="165">
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=AD$6,$F8&gt;=AD$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD13:AE13 AD21:AE21 AD27:AE27 AD8:AE8">
-    <cfRule type="expression" dxfId="117" priority="163">
+  <conditionalFormatting sqref="AD13:AE13 AD21:AE21 AD26:AE26 AD8:AE8">
+    <cfRule type="expression" dxfId="106" priority="163">
       <formula>AD$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD9:AE12">
-    <cfRule type="expression" dxfId="116" priority="161">
+    <cfRule type="expression" dxfId="105" priority="161">
       <formula>AND($E9&lt;=AD$6,ROUNDDOWN(($F9-$E9+1)*$H9,0)+$E9-1&gt;=AD$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="162">
+    <cfRule type="expression" dxfId="104" priority="162">
       <formula>AND(NOT(ISBLANK($E9)),$E9&lt;=AD$6,$F9&gt;=AD$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD9:AE12">
-    <cfRule type="expression" dxfId="114" priority="160">
+    <cfRule type="expression" dxfId="103" priority="160">
       <formula>AD$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD14:AE20">
-    <cfRule type="expression" dxfId="113" priority="158">
+    <cfRule type="expression" dxfId="102" priority="158">
       <formula>AND($E14&lt;=AD$6,ROUNDDOWN(($F14-$E14+1)*$H14,0)+$E14-1&gt;=AD$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="159">
+    <cfRule type="expression" dxfId="101" priority="159">
       <formula>AND(NOT(ISBLANK($E14)),$E14&lt;=AD$6,$F14&gt;=AD$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD14:AE20">
-    <cfRule type="expression" dxfId="111" priority="157">
+    <cfRule type="expression" dxfId="100" priority="157">
       <formula>AD$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD22:AE26">
-    <cfRule type="expression" dxfId="110" priority="154">
-      <formula>AD$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD28:AE32">
-    <cfRule type="expression" dxfId="109" priority="151">
+  <conditionalFormatting sqref="AD27:AE31">
+    <cfRule type="expression" dxfId="99" priority="151">
       <formula>AD$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK8:AL8 AK13:AL13 AK21:AL21">
-    <cfRule type="expression" dxfId="108" priority="149">
+    <cfRule type="expression" dxfId="98" priority="149">
       <formula>AND($E8&lt;=AK$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=AK$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="150">
+    <cfRule type="expression" dxfId="97" priority="150">
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=AK$6,$F8&gt;=AK$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK13:AL13 AK21:AL21 AK27:AL27 AK8:AL8">
-    <cfRule type="expression" dxfId="106" priority="148">
+  <conditionalFormatting sqref="AK13:AL13 AK21:AL21 AK26:AL26 AK8:AL8">
+    <cfRule type="expression" dxfId="96" priority="148">
       <formula>AK$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK9:AL12">
-    <cfRule type="expression" dxfId="105" priority="146">
+    <cfRule type="expression" dxfId="95" priority="146">
       <formula>AND($E9&lt;=AK$6,ROUNDDOWN(($F9-$E9+1)*$H9,0)+$E9-1&gt;=AK$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="147">
+    <cfRule type="expression" dxfId="94" priority="147">
       <formula>AND(NOT(ISBLANK($E9)),$E9&lt;=AK$6,$F9&gt;=AK$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK9:AL12">
-    <cfRule type="expression" dxfId="103" priority="145">
+    <cfRule type="expression" dxfId="93" priority="145">
       <formula>AK$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK14:AL20">
-    <cfRule type="expression" dxfId="102" priority="143">
+    <cfRule type="expression" dxfId="92" priority="143">
       <formula>AND($E14&lt;=AK$6,ROUNDDOWN(($F14-$E14+1)*$H14,0)+$E14-1&gt;=AK$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="144">
+    <cfRule type="expression" dxfId="91" priority="144">
       <formula>AND(NOT(ISBLANK($E14)),$E14&lt;=AK$6,$F14&gt;=AK$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK14:AL20">
-    <cfRule type="expression" dxfId="100" priority="142">
+    <cfRule type="expression" dxfId="90" priority="142">
       <formula>AK$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK22:AL26">
-    <cfRule type="expression" dxfId="99" priority="139">
-      <formula>AK$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK28:AL32">
-    <cfRule type="expression" dxfId="98" priority="136">
+  <conditionalFormatting sqref="AK27:AL31">
+    <cfRule type="expression" dxfId="89" priority="136">
       <formula>AK$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR8:AS8 AR13:AS13 AR21:AS21">
-    <cfRule type="expression" dxfId="97" priority="134">
+    <cfRule type="expression" dxfId="88" priority="134">
       <formula>AND($E8&lt;=AR$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=AR$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="135">
+    <cfRule type="expression" dxfId="87" priority="135">
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=AR$6,$F8&gt;=AR$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR13:AS13 AR21:AS21 AR27:AS27 AR8:AS8">
-    <cfRule type="expression" dxfId="95" priority="133">
+  <conditionalFormatting sqref="AR13:AS13 AR21:AS21 AR26:AS26 AR8:AS8">
+    <cfRule type="expression" dxfId="86" priority="133">
       <formula>AR$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR9:AS12">
-    <cfRule type="expression" dxfId="94" priority="131">
+    <cfRule type="expression" dxfId="85" priority="131">
       <formula>AND($E9&lt;=AR$6,ROUNDDOWN(($F9-$E9+1)*$H9,0)+$E9-1&gt;=AR$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="132">
+    <cfRule type="expression" dxfId="84" priority="132">
       <formula>AND(NOT(ISBLANK($E9)),$E9&lt;=AR$6,$F9&gt;=AR$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR9:AS12">
-    <cfRule type="expression" dxfId="92" priority="130">
+    <cfRule type="expression" dxfId="83" priority="130">
       <formula>AR$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR14:AS20">
-    <cfRule type="expression" dxfId="91" priority="128">
+    <cfRule type="expression" dxfId="82" priority="128">
       <formula>AND($E14&lt;=AR$6,ROUNDDOWN(($F14-$E14+1)*$H14,0)+$E14-1&gt;=AR$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="129">
+    <cfRule type="expression" dxfId="81" priority="129">
       <formula>AND(NOT(ISBLANK($E14)),$E14&lt;=AR$6,$F14&gt;=AR$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR14:AS20">
-    <cfRule type="expression" dxfId="89" priority="127">
+    <cfRule type="expression" dxfId="80" priority="127">
       <formula>AR$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR22:AS26">
-    <cfRule type="expression" dxfId="88" priority="124">
-      <formula>AR$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR28:AS32">
-    <cfRule type="expression" dxfId="87" priority="121">
+  <conditionalFormatting sqref="AR27:AS31">
+    <cfRule type="expression" dxfId="79" priority="121">
       <formula>AR$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY8:AZ8 AY13:AZ13 AY21:AZ21">
-    <cfRule type="expression" dxfId="86" priority="119">
+    <cfRule type="expression" dxfId="78" priority="119">
       <formula>AND($E8&lt;=AY$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=AY$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="120">
+    <cfRule type="expression" dxfId="77" priority="120">
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=AY$6,$F8&gt;=AY$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY13:AZ13 AY21:AZ21 AY27:AZ27 AY8:AZ8">
-    <cfRule type="expression" dxfId="84" priority="118">
+  <conditionalFormatting sqref="AY13:AZ13 AY21:AZ21 AY26:AZ26 AY8:AZ8">
+    <cfRule type="expression" dxfId="76" priority="118">
       <formula>AY$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY9:AZ12">
-    <cfRule type="expression" dxfId="83" priority="116">
+    <cfRule type="expression" dxfId="75" priority="116">
       <formula>AND($E9&lt;=AY$6,ROUNDDOWN(($F9-$E9+1)*$H9,0)+$E9-1&gt;=AY$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="117">
+    <cfRule type="expression" dxfId="74" priority="117">
       <formula>AND(NOT(ISBLANK($E9)),$E9&lt;=AY$6,$F9&gt;=AY$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY9:AZ12">
-    <cfRule type="expression" dxfId="81" priority="115">
+    <cfRule type="expression" dxfId="73" priority="115">
       <formula>AY$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY14:AZ20">
-    <cfRule type="expression" dxfId="80" priority="113">
+    <cfRule type="expression" dxfId="72" priority="113">
       <formula>AND($E14&lt;=AY$6,ROUNDDOWN(($F14-$E14+1)*$H14,0)+$E14-1&gt;=AY$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="114">
+    <cfRule type="expression" dxfId="71" priority="114">
       <formula>AND(NOT(ISBLANK($E14)),$E14&lt;=AY$6,$F14&gt;=AY$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY14:AZ20">
-    <cfRule type="expression" dxfId="78" priority="112">
+    <cfRule type="expression" dxfId="70" priority="112">
       <formula>AY$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY22:AZ26">
-    <cfRule type="expression" dxfId="77" priority="109">
-      <formula>AY$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AY28:AZ32">
-    <cfRule type="expression" dxfId="76" priority="106">
+  <conditionalFormatting sqref="AY27:AZ31">
+    <cfRule type="expression" dxfId="69" priority="106">
       <formula>AY$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF8:BG8 BF13:BG13 BF21:BG21">
-    <cfRule type="expression" dxfId="75" priority="104">
+    <cfRule type="expression" dxfId="68" priority="104">
       <formula>AND($E8&lt;=BF$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=BF$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="105">
+    <cfRule type="expression" dxfId="67" priority="105">
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=BF$6,$F8&gt;=BF$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF13:BG13 BF21:BG21 BF27:BG27 BF8:BG8">
-    <cfRule type="expression" dxfId="73" priority="103">
+  <conditionalFormatting sqref="BF13:BG13 BF21:BG21 BF26:BG26 BF8:BG8">
+    <cfRule type="expression" dxfId="66" priority="103">
       <formula>BF$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF9:BG12">
-    <cfRule type="expression" dxfId="72" priority="101">
+    <cfRule type="expression" dxfId="65" priority="101">
       <formula>AND($E9&lt;=BF$6,ROUNDDOWN(($F9-$E9+1)*$H9,0)+$E9-1&gt;=BF$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="102">
+    <cfRule type="expression" dxfId="64" priority="102">
       <formula>AND(NOT(ISBLANK($E9)),$E9&lt;=BF$6,$F9&gt;=BF$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF9:BG12">
-    <cfRule type="expression" dxfId="70" priority="100">
+    <cfRule type="expression" dxfId="63" priority="100">
       <formula>BF$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF14:BG20">
-    <cfRule type="expression" dxfId="69" priority="98">
+    <cfRule type="expression" dxfId="62" priority="98">
       <formula>AND($E14&lt;=BF$6,ROUNDDOWN(($F14-$E14+1)*$H14,0)+$E14-1&gt;=BF$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="99">
+    <cfRule type="expression" dxfId="61" priority="99">
       <formula>AND(NOT(ISBLANK($E14)),$E14&lt;=BF$6,$F14&gt;=BF$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF14:BG20">
-    <cfRule type="expression" dxfId="67" priority="97">
+    <cfRule type="expression" dxfId="60" priority="97">
       <formula>BF$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF22:BG26">
-    <cfRule type="expression" dxfId="66" priority="94">
-      <formula>BF$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BF28:BG32">
-    <cfRule type="expression" dxfId="65" priority="91">
+  <conditionalFormatting sqref="BF27:BG31">
+    <cfRule type="expression" dxfId="59" priority="91">
       <formula>BF$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM8:BN8 BM13:BN13 BM21:BN21">
-    <cfRule type="expression" dxfId="64" priority="89">
+    <cfRule type="expression" dxfId="58" priority="89">
       <formula>AND($E8&lt;=BM$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=BM$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="90">
+    <cfRule type="expression" dxfId="57" priority="90">
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=BM$6,$F8&gt;=BM$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BM13:BN13 BM21:BN21 BM27:BN27 BM8:BN8">
-    <cfRule type="expression" dxfId="62" priority="88">
+  <conditionalFormatting sqref="BM13:BN13 BM21:BN21 BM26:BN26 BM8:BN8">
+    <cfRule type="expression" dxfId="56" priority="88">
       <formula>BM$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM9:BN12">
-    <cfRule type="expression" dxfId="61" priority="86">
+    <cfRule type="expression" dxfId="55" priority="86">
       <formula>AND($E9&lt;=BM$6,ROUNDDOWN(($F9-$E9+1)*$H9,0)+$E9-1&gt;=BM$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="87">
+    <cfRule type="expression" dxfId="54" priority="87">
       <formula>AND(NOT(ISBLANK($E9)),$E9&lt;=BM$6,$F9&gt;=BM$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM9:BN12">
-    <cfRule type="expression" dxfId="59" priority="85">
+    <cfRule type="expression" dxfId="53" priority="85">
       <formula>BM$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM14:BN20">
-    <cfRule type="expression" dxfId="58" priority="83">
+    <cfRule type="expression" dxfId="52" priority="83">
       <formula>AND($E14&lt;=BM$6,ROUNDDOWN(($F14-$E14+1)*$H14,0)+$E14-1&gt;=BM$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="84">
+    <cfRule type="expression" dxfId="51" priority="84">
       <formula>AND(NOT(ISBLANK($E14)),$E14&lt;=BM$6,$F14&gt;=BM$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM14:BN20">
-    <cfRule type="expression" dxfId="56" priority="82">
+    <cfRule type="expression" dxfId="50" priority="82">
       <formula>BM$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BM22:BN26">
-    <cfRule type="expression" dxfId="55" priority="79">
-      <formula>BM$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BM28:BN32">
-    <cfRule type="expression" dxfId="54" priority="76">
+  <conditionalFormatting sqref="BM27:BN31">
+    <cfRule type="expression" dxfId="49" priority="76">
       <formula>BM$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT8:BU8 BT13:BU13 BT21:BU21">
-    <cfRule type="expression" dxfId="53" priority="74">
+    <cfRule type="expression" dxfId="48" priority="74">
       <formula>AND($E8&lt;=BT$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=BT$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="75">
+    <cfRule type="expression" dxfId="47" priority="75">
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=BT$6,$F8&gt;=BT$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BT13:BU13 BT21:BU21 BT27:BU27 BT8:BU8">
-    <cfRule type="expression" dxfId="51" priority="73">
+  <conditionalFormatting sqref="BT13:BU13 BT21:BU21 BT26:BU26 BT8:BU8">
+    <cfRule type="expression" dxfId="46" priority="73">
       <formula>BT$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT9:BU12">
-    <cfRule type="expression" dxfId="50" priority="71">
+    <cfRule type="expression" dxfId="45" priority="71">
       <formula>AND($E9&lt;=BT$6,ROUNDDOWN(($F9-$E9+1)*$H9,0)+$E9-1&gt;=BT$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="72">
+    <cfRule type="expression" dxfId="44" priority="72">
       <formula>AND(NOT(ISBLANK($E9)),$E9&lt;=BT$6,$F9&gt;=BT$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT9:BU12">
-    <cfRule type="expression" dxfId="48" priority="70">
+    <cfRule type="expression" dxfId="43" priority="70">
       <formula>BT$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT14:BU20">
-    <cfRule type="expression" dxfId="47" priority="68">
+    <cfRule type="expression" dxfId="42" priority="68">
       <formula>AND($E14&lt;=BT$6,ROUNDDOWN(($F14-$E14+1)*$H14,0)+$E14-1&gt;=BT$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="69">
+    <cfRule type="expression" dxfId="41" priority="69">
       <formula>AND(NOT(ISBLANK($E14)),$E14&lt;=BT$6,$F14&gt;=BT$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT14:BU20">
-    <cfRule type="expression" dxfId="45" priority="67">
+    <cfRule type="expression" dxfId="40" priority="67">
       <formula>BT$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BT22:BU26">
-    <cfRule type="expression" dxfId="44" priority="64">
-      <formula>BT$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BT28:BU32">
-    <cfRule type="expression" dxfId="43" priority="61">
+  <conditionalFormatting sqref="BT27:BU31">
+    <cfRule type="expression" dxfId="39" priority="61">
       <formula>BT$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA8:CB8 CA13:CB13 CA21:CB21">
-    <cfRule type="expression" dxfId="42" priority="59">
+    <cfRule type="expression" dxfId="38" priority="59">
       <formula>AND($E8&lt;=CA$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=CA$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="60">
+    <cfRule type="expression" dxfId="37" priority="60">
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=CA$6,$F8&gt;=CA$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CA13:CB13 CA21:CB21 CA27:CB27 CA8:CB8">
-    <cfRule type="expression" dxfId="40" priority="58">
+  <conditionalFormatting sqref="CA13:CB13 CA21:CB21 CA26:CB26 CA8:CB8">
+    <cfRule type="expression" dxfId="36" priority="58">
       <formula>CA$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA9:CB12">
-    <cfRule type="expression" dxfId="39" priority="56">
+    <cfRule type="expression" dxfId="35" priority="56">
       <formula>AND($E9&lt;=CA$6,ROUNDDOWN(($F9-$E9+1)*$H9,0)+$E9-1&gt;=CA$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="57">
+    <cfRule type="expression" dxfId="34" priority="57">
       <formula>AND(NOT(ISBLANK($E9)),$E9&lt;=CA$6,$F9&gt;=CA$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA9:CB12">
-    <cfRule type="expression" dxfId="37" priority="55">
+    <cfRule type="expression" dxfId="33" priority="55">
       <formula>CA$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA14:CB20">
-    <cfRule type="expression" dxfId="36" priority="53">
+    <cfRule type="expression" dxfId="32" priority="53">
       <formula>AND($E14&lt;=CA$6,ROUNDDOWN(($F14-$E14+1)*$H14,0)+$E14-1&gt;=CA$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="54">
+    <cfRule type="expression" dxfId="31" priority="54">
       <formula>AND(NOT(ISBLANK($E14)),$E14&lt;=CA$6,$F14&gt;=CA$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA14:CB20">
-    <cfRule type="expression" dxfId="34" priority="52">
+    <cfRule type="expression" dxfId="30" priority="52">
       <formula>CA$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CA22:CB26">
-    <cfRule type="expression" dxfId="33" priority="49">
-      <formula>CA$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CA28:CB32">
-    <cfRule type="expression" dxfId="32" priority="46">
+  <conditionalFormatting sqref="CA27:CB31">
+    <cfRule type="expression" dxfId="29" priority="46">
       <formula>CA$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CH8:CI8 CH13:CI13 CH21:CI21">
-    <cfRule type="expression" dxfId="31" priority="44">
+    <cfRule type="expression" dxfId="28" priority="44">
       <formula>AND($E8&lt;=CH$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=CH$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="45">
+    <cfRule type="expression" dxfId="27" priority="45">
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=CH$6,$F8&gt;=CH$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CH13:CI13 CH21:CI21 CH27:CI27 CH8:CI8">
-    <cfRule type="expression" dxfId="29" priority="43">
+  <conditionalFormatting sqref="CH13:CI13 CH21:CI21 CH26:CI26 CH8:CI8">
+    <cfRule type="expression" dxfId="26" priority="43">
       <formula>CH$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CH9:CI12">
-    <cfRule type="expression" dxfId="28" priority="41">
+    <cfRule type="expression" dxfId="25" priority="41">
       <formula>AND($E9&lt;=CH$6,ROUNDDOWN(($F9-$E9+1)*$H9,0)+$E9-1&gt;=CH$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="42">
+    <cfRule type="expression" dxfId="24" priority="42">
       <formula>AND(NOT(ISBLANK($E9)),$E9&lt;=CH$6,$F9&gt;=CH$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CH9:CI12">
-    <cfRule type="expression" dxfId="26" priority="40">
+    <cfRule type="expression" dxfId="23" priority="40">
       <formula>CH$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CH14:CI20">
-    <cfRule type="expression" dxfId="25" priority="38">
+    <cfRule type="expression" dxfId="22" priority="38">
       <formula>AND($E14&lt;=CH$6,ROUNDDOWN(($F14-$E14+1)*$H14,0)+$E14-1&gt;=CH$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="39">
+    <cfRule type="expression" dxfId="21" priority="39">
       <formula>AND(NOT(ISBLANK($E14)),$E14&lt;=CH$6,$F14&gt;=CH$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CH14:CI20">
-    <cfRule type="expression" dxfId="23" priority="37">
+    <cfRule type="expression" dxfId="20" priority="37">
       <formula>CH$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CH22:CI26">
-    <cfRule type="expression" dxfId="22" priority="34">
-      <formula>CH$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CH28:CI32">
-    <cfRule type="expression" dxfId="21" priority="31">
+  <conditionalFormatting sqref="CH27:CI31">
+    <cfRule type="expression" dxfId="19" priority="31">
       <formula>CH$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CO8:CP8 CO13:CP13 CO21:CP21">
-    <cfRule type="expression" dxfId="20" priority="29">
+    <cfRule type="expression" dxfId="18" priority="29">
       <formula>AND($E8&lt;=CO$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=CO$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="30">
+    <cfRule type="expression" dxfId="17" priority="30">
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=CO$6,$F8&gt;=CO$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CO13:CP13 CO21:CP21 CO27:CP27 CO8:CP8">
-    <cfRule type="expression" dxfId="18" priority="28">
+  <conditionalFormatting sqref="CO13:CP13 CO21:CP21 CO26:CP26 CO8:CP8">
+    <cfRule type="expression" dxfId="16" priority="28">
       <formula>CO$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CO9:CP12">
-    <cfRule type="expression" dxfId="17" priority="26">
+    <cfRule type="expression" dxfId="15" priority="26">
       <formula>AND($E9&lt;=CO$6,ROUNDDOWN(($F9-$E9+1)*$H9,0)+$E9-1&gt;=CO$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="27">
+    <cfRule type="expression" dxfId="14" priority="27">
       <formula>AND(NOT(ISBLANK($E9)),$E9&lt;=CO$6,$F9&gt;=CO$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CO9:CP12">
-    <cfRule type="expression" dxfId="15" priority="25">
+    <cfRule type="expression" dxfId="13" priority="25">
       <formula>CO$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CO14:CP20">
-    <cfRule type="expression" dxfId="14" priority="23">
+    <cfRule type="expression" dxfId="12" priority="23">
       <formula>AND($E14&lt;=CO$6,ROUNDDOWN(($F14-$E14+1)*$H14,0)+$E14-1&gt;=CO$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="24">
+    <cfRule type="expression" dxfId="11" priority="24">
       <formula>AND(NOT(ISBLANK($E14)),$E14&lt;=CO$6,$F14&gt;=CO$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CO14:CP20">
-    <cfRule type="expression" dxfId="12" priority="22">
+    <cfRule type="expression" dxfId="10" priority="22">
       <formula>CO$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CO22:CP26">
-    <cfRule type="expression" dxfId="11" priority="19">
-      <formula>CO$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CO28:CP32">
-    <cfRule type="expression" dxfId="10" priority="16">
+  <conditionalFormatting sqref="CO27:CP31">
+    <cfRule type="expression" dxfId="9" priority="16">
       <formula>CO$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CV8:CW8 CV13:CW13 CV21:CW21">
-    <cfRule type="expression" dxfId="9" priority="14">
+    <cfRule type="expression" dxfId="8" priority="14">
       <formula>AND($E8&lt;=CV$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=CV$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="15">
+    <cfRule type="expression" dxfId="7" priority="15">
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=CV$6,$F8&gt;=CV$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CV13:CW13 CV21:CW21 CV27:CW27 CV8:CW8">
-    <cfRule type="expression" dxfId="7" priority="13">
+  <conditionalFormatting sqref="CV13:CW13 CV21:CW21 CV26:CW26 CV8:CW8">
+    <cfRule type="expression" dxfId="6" priority="13">
       <formula>CV$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CV9:CW12">
-    <cfRule type="expression" dxfId="6" priority="11">
+    <cfRule type="expression" dxfId="5" priority="11">
       <formula>AND($E9&lt;=CV$6,ROUNDDOWN(($F9-$E9+1)*$H9,0)+$E9-1&gt;=CV$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="12">
+    <cfRule type="expression" dxfId="4" priority="12">
       <formula>AND(NOT(ISBLANK($E9)),$E9&lt;=CV$6,$F9&gt;=CV$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CV9:CW12">
-    <cfRule type="expression" dxfId="4" priority="10">
+    <cfRule type="expression" dxfId="3" priority="10">
       <formula>CV$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CV14:CW20">
-    <cfRule type="expression" dxfId="3" priority="8">
+    <cfRule type="expression" dxfId="2" priority="8">
       <formula>AND($E14&lt;=CV$6,ROUNDDOWN(($F14-$E14+1)*$H14,0)+$E14-1&gt;=CV$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="9">
+    <cfRule type="expression" dxfId="1" priority="9">
       <formula>AND(NOT(ISBLANK($E14)),$E14&lt;=CV$6,$F14&gt;=CV$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CV14:CW20">
-    <cfRule type="expression" dxfId="1" priority="7">
-      <formula>CV$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CV22:CW26">
-    <cfRule type="expression" dxfId="0" priority="4">
+    <cfRule type="expression" dxfId="0" priority="7">
       <formula>CV$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10652,8 +10311,8 @@
   <pageSetup scale="63" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="A33:B34 B30:B31 A36:B36 B35 E13 E21 E27 E33:H36 G12 G13:H13 G21:H21 G27:H27 G37 G38:G39 G40 H15 H23:H26 G30:H31 H28 H29" unlockedFormula="1"/>
-    <ignoredError sqref="A27 A21 A13" formula="1"/>
+    <ignoredError sqref="A32:B33 B29:B30 A35:B35 B34 E13 E21 E26 E32:H35 G12 G13:H13 G21:H21 G26:H26 G36 G37:G38 G39 H15 H23 G29:H30 H27 H28 H24:H25" unlockedFormula="1"/>
+    <ignoredError sqref="A26 A21 A13" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -10673,7 +10332,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H10:H21 H8 H23:H40</xm:sqref>
+          <xm:sqref>H10:H21 H8 H23:H39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7DEB9953-C6BE-406C-9AA5-BF1F435BA01B}">
@@ -10971,10 +10630,10 @@
     </row>
     <row r="12" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A13" s="170" t="s">
+      <c r="A13" s="177" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="170"/>
+      <c r="B13" s="177"/>
     </row>
     <row r="14" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:3" s="132" customFormat="1" ht="18" x14ac:dyDescent="0.2">
@@ -11036,10 +10695,10 @@
       <c r="B23" s="10"/>
     </row>
     <row r="24" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A24" s="170" t="s">
+      <c r="A24" s="177" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="170"/>
+      <c r="B24" s="177"/>
     </row>
     <row r="25" spans="1:3" s="8" customFormat="1" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A25" s="142"/>
@@ -11112,10 +10771,10 @@
       <c r="B37" s="10"/>
     </row>
     <row r="38" spans="1:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="A38" s="170" t="s">
+      <c r="A38" s="177" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="170"/>
+      <c r="B38" s="177"/>
     </row>
     <row r="39" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B39" s="139" t="s">
@@ -11152,10 +10811,10 @@
       <c r="B48" s="11"/>
     </row>
     <row r="49" spans="1:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="A49" s="170" t="s">
+      <c r="A49" s="177" t="s">
         <v>7</v>
       </c>
-      <c r="B49" s="170"/>
+      <c r="B49" s="177"/>
     </row>
     <row r="50" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B50" s="139" t="s">
@@ -11253,10 +10912,10 @@
       <c r="B64" s="12"/>
     </row>
     <row r="65" spans="1:2" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A65" s="170" t="s">
+      <c r="A65" s="177" t="s">
         <v>9</v>
       </c>
-      <c r="B65" s="170"/>
+      <c r="B65" s="177"/>
     </row>
     <row r="66" spans="1:2" s="20" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B66" s="139" t="s">
@@ -11267,10 +10926,10 @@
       <c r="B67" s="13"/>
     </row>
     <row r="68" spans="1:2" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A68" s="170" t="s">
+      <c r="A68" s="177" t="s">
         <v>5</v>
       </c>
-      <c r="B68" s="170"/>
+      <c r="B68" s="177"/>
     </row>
     <row r="69" spans="1:2" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="154" t="s">
